--- a/www/docs/USSR_1940_1991_all_data.xlsx
+++ b/www/docs/USSR_1940_1991_all_data.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet name="Data Clio Infra Format" r:id="rId3" sheetId="1"/>
-    <sheet name="Metadata" r:id="rId4" sheetId="2"/>
+    <sheet name="Data Long Format" r:id="rId4" sheetId="2"/>
+    <sheet name="Metadata" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="630">
   <si>
     <t>Webmapper code</t>
   </si>
@@ -1590,6 +1591,9 @@
     <t>cshapes/1557</t>
   </si>
   <si>
+    <t>NA</t>
+  </si>
+  <si>
     <t>USSR</t>
   </si>
   <si>
@@ -1597,6 +1601,267 @@
   </si>
   <si>
     <t>Book Titles per Capita</t>
+  </si>
+  <si>
+    <t>11.7152542372881</t>
+  </si>
+  <si>
+    <t>9.43728813559322</t>
+  </si>
+  <si>
+    <t>16.8</t>
+  </si>
+  <si>
+    <t>28.271186440678</t>
+  </si>
+  <si>
+    <t>66.5618448637317</t>
+  </si>
+  <si>
+    <t>191.582329317269</t>
+  </si>
+  <si>
+    <t>221.714300348289</t>
+  </si>
+  <si>
+    <t>207.040053267773</t>
+  </si>
+  <si>
+    <t>116.356791641057</t>
+  </si>
+  <si>
+    <t>39.1444113138474</t>
+  </si>
+  <si>
+    <t>174.3378707241</t>
+  </si>
+  <si>
+    <t>210.690945893582</t>
+  </si>
+  <si>
+    <t>253.237353945199</t>
+  </si>
+  <si>
+    <t>256.985961701227</t>
+  </si>
+  <si>
+    <t>198.203835171263</t>
+  </si>
+  <si>
+    <t>221.549583056191</t>
+  </si>
+  <si>
+    <t>249.174456683383</t>
+  </si>
+  <si>
+    <t>272.050063213109</t>
+  </si>
+  <si>
+    <t>253.903017629704</t>
+  </si>
+  <si>
+    <t>239.517774463877</t>
+  </si>
+  <si>
+    <t>247.369735899448</t>
+  </si>
+  <si>
+    <t>237.316751949688</t>
+  </si>
+  <si>
+    <t>239.388268266822</t>
+  </si>
+  <si>
+    <t>203.924856901419</t>
+  </si>
+  <si>
+    <t>215.119216054833</t>
+  </si>
+  <si>
+    <t>232.422314004076</t>
+  </si>
+  <si>
+    <t>237.956780444241</t>
+  </si>
+  <si>
+    <t>205.406115994651</t>
+  </si>
+  <si>
+    <t>94.0032801520586</t>
+  </si>
+  <si>
+    <t>86.9557901059121</t>
+  </si>
+  <si>
+    <t>97.4961371925958</t>
+  </si>
+  <si>
+    <t>109.982028790722</t>
+  </si>
+  <si>
+    <t>137.034735089242</t>
+  </si>
+  <si>
+    <t>175.853891157851</t>
+  </si>
+  <si>
+    <t>230.604966095788</t>
+  </si>
+  <si>
+    <t>237.323130009485</t>
+  </si>
+  <si>
+    <t>240.267385348488</t>
+  </si>
+  <si>
+    <t>228.282309403276</t>
+  </si>
+  <si>
+    <t>232.484814513391</t>
+  </si>
+  <si>
+    <t>217.419183889772</t>
+  </si>
+  <si>
+    <t>261.493743020258</t>
+  </si>
+  <si>
+    <t>280.666847856744</t>
+  </si>
+  <si>
+    <t>299.940042222368</t>
+  </si>
+  <si>
+    <t>291.140306135082</t>
+  </si>
+  <si>
+    <t>309.920816573004</t>
+  </si>
+  <si>
+    <t>330.762381142445</t>
+  </si>
+  <si>
+    <t>359.039955838236</t>
+  </si>
+  <si>
+    <t>343.065868011514</t>
+  </si>
+  <si>
+    <t>360.673672246118</t>
+  </si>
+  <si>
+    <t>348.123867773934</t>
+  </si>
+  <si>
+    <t>345.818595218704</t>
+  </si>
+  <si>
+    <t>332.165774339337</t>
+  </si>
+  <si>
+    <t>314.79207086926</t>
+  </si>
+  <si>
+    <t>316.142996564288</t>
+  </si>
+  <si>
+    <t>319.767249069948</t>
+  </si>
+  <si>
+    <t>312.02577427995</t>
+  </si>
+  <si>
+    <t>325.386068968625</t>
+  </si>
+  <si>
+    <t>349.088199769382</t>
+  </si>
+  <si>
+    <t>325.680956813658</t>
+  </si>
+  <si>
+    <t>321.153480656426</t>
+  </si>
+  <si>
+    <t>344.273452101321</t>
+  </si>
+  <si>
+    <t>309.199298130912</t>
+  </si>
+  <si>
+    <t>327.604741383762</t>
+  </si>
+  <si>
+    <t>329.424137328376</t>
+  </si>
+  <si>
+    <t>323.972969228304</t>
+  </si>
+  <si>
+    <t>305.440048399053</t>
+  </si>
+  <si>
+    <t>303.377133967982</t>
+  </si>
+  <si>
+    <t>309.585130004887</t>
+  </si>
+  <si>
+    <t>298.361654489452</t>
+  </si>
+  <si>
+    <t>302.83783572001</t>
+  </si>
+  <si>
+    <t>300.68280497036</t>
+  </si>
+  <si>
+    <t>302.406410566679</t>
+  </si>
+  <si>
+    <t>297.71726113263</t>
+  </si>
+  <si>
+    <t>293.617534516154</t>
+  </si>
+  <si>
+    <t>286.295296757706</t>
+  </si>
+  <si>
+    <t>267.084608881311</t>
+  </si>
+  <si>
+    <t>237.696383310669</t>
+  </si>
+  <si>
+    <t>117.43427607087</t>
+  </si>
+  <si>
+    <t>98.6973401520515</t>
+  </si>
+  <si>
+    <t>99.6420913220162</t>
+  </si>
+  <si>
+    <t>104.414487874046</t>
+  </si>
+  <si>
+    <t>115.600649584677</t>
+  </si>
+  <si>
+    <t>124.686370097513</t>
+  </si>
+  <si>
+    <t>Borders Start Year</t>
+  </si>
+  <si>
+    <t>Borders End Year</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>value</t>
   </si>
   <si>
     <t>Description</t>
@@ -3267,12 +3532,14 @@
       <c r="A2" t="s">
         <v>524</v>
       </c>
-      <c r="B2" t="n">
-        <v>1557.0</v>
-      </c>
-      <c r="C2"/>
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" t="s">
+        <v>525</v>
+      </c>
       <c r="D2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E2" t="s">
         <v>454</v>
@@ -3281,693 +3548,1559 @@
         <v>499</v>
       </c>
       <c r="G2" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H2" t="s">
-        <v>527</v>
-      </c>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2"/>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
-      <c r="U2"/>
-      <c r="V2"/>
-      <c r="W2"/>
-      <c r="X2"/>
-      <c r="Y2"/>
-      <c r="Z2"/>
-      <c r="AA2"/>
-      <c r="AB2"/>
-      <c r="AC2"/>
-      <c r="AD2"/>
-      <c r="AE2"/>
-      <c r="AF2"/>
-      <c r="AG2"/>
-      <c r="AH2"/>
-      <c r="AI2"/>
-      <c r="AJ2"/>
-      <c r="AK2"/>
-      <c r="AL2"/>
-      <c r="AM2"/>
-      <c r="AN2"/>
-      <c r="AO2"/>
-      <c r="AP2"/>
-      <c r="AQ2"/>
-      <c r="AR2"/>
-      <c r="AS2"/>
-      <c r="AT2"/>
-      <c r="AU2"/>
-      <c r="AV2"/>
-      <c r="AW2"/>
-      <c r="AX2"/>
-      <c r="AY2"/>
-      <c r="AZ2"/>
-      <c r="BA2"/>
-      <c r="BB2"/>
-      <c r="BC2"/>
-      <c r="BD2"/>
-      <c r="BE2"/>
-      <c r="BF2"/>
-      <c r="BG2"/>
-      <c r="BH2"/>
-      <c r="BI2"/>
-      <c r="BJ2"/>
-      <c r="BK2"/>
-      <c r="BL2"/>
-      <c r="BM2"/>
-      <c r="BN2"/>
-      <c r="BO2"/>
-      <c r="BP2"/>
-      <c r="BQ2"/>
-      <c r="BR2"/>
-      <c r="BS2"/>
-      <c r="BT2"/>
-      <c r="BU2"/>
-      <c r="BV2"/>
-      <c r="BW2"/>
-      <c r="BX2"/>
-      <c r="BY2"/>
-      <c r="BZ2"/>
-      <c r="CA2"/>
-      <c r="CB2"/>
-      <c r="CC2"/>
-      <c r="CD2"/>
-      <c r="CE2"/>
-      <c r="CF2"/>
-      <c r="CG2"/>
-      <c r="CH2"/>
-      <c r="CI2"/>
-      <c r="CJ2"/>
-      <c r="CK2"/>
-      <c r="CL2"/>
-      <c r="CM2"/>
-      <c r="CN2"/>
-      <c r="CO2"/>
-      <c r="CP2"/>
-      <c r="CQ2"/>
-      <c r="CR2"/>
-      <c r="CS2"/>
-      <c r="CT2"/>
-      <c r="CU2"/>
-      <c r="CV2"/>
-      <c r="CW2"/>
-      <c r="CX2"/>
-      <c r="CY2"/>
-      <c r="CZ2"/>
-      <c r="DA2"/>
-      <c r="DB2"/>
-      <c r="DC2"/>
-      <c r="DD2"/>
-      <c r="DE2"/>
-      <c r="DF2"/>
-      <c r="DG2"/>
-      <c r="DH2"/>
-      <c r="DI2"/>
-      <c r="DJ2"/>
-      <c r="DK2"/>
-      <c r="DL2"/>
-      <c r="DM2"/>
-      <c r="DN2"/>
-      <c r="DO2"/>
-      <c r="DP2"/>
-      <c r="DQ2"/>
-      <c r="DR2"/>
-      <c r="DS2"/>
-      <c r="DT2"/>
-      <c r="DU2"/>
-      <c r="DV2"/>
-      <c r="DW2"/>
-      <c r="DX2"/>
-      <c r="DY2"/>
-      <c r="DZ2"/>
-      <c r="EA2"/>
-      <c r="EB2"/>
-      <c r="EC2"/>
-      <c r="ED2"/>
-      <c r="EE2"/>
-      <c r="EF2"/>
-      <c r="EG2"/>
-      <c r="EH2"/>
-      <c r="EI2"/>
-      <c r="EJ2"/>
-      <c r="EK2"/>
-      <c r="EL2"/>
-      <c r="EM2"/>
-      <c r="EN2"/>
-      <c r="EO2"/>
-      <c r="EP2"/>
-      <c r="EQ2"/>
-      <c r="ER2"/>
-      <c r="ES2"/>
-      <c r="ET2"/>
-      <c r="EU2"/>
-      <c r="EV2"/>
-      <c r="EW2"/>
-      <c r="EX2"/>
-      <c r="EY2"/>
-      <c r="EZ2"/>
-      <c r="FA2"/>
-      <c r="FB2"/>
-      <c r="FC2"/>
-      <c r="FD2"/>
-      <c r="FE2"/>
-      <c r="FF2"/>
-      <c r="FG2"/>
-      <c r="FH2"/>
-      <c r="FI2"/>
-      <c r="FJ2"/>
-      <c r="FK2"/>
-      <c r="FL2"/>
-      <c r="FM2"/>
-      <c r="FN2"/>
-      <c r="FO2"/>
-      <c r="FP2"/>
-      <c r="FQ2"/>
-      <c r="FR2"/>
-      <c r="FS2"/>
-      <c r="FT2"/>
-      <c r="FU2"/>
-      <c r="FV2"/>
-      <c r="FW2"/>
-      <c r="FX2"/>
-      <c r="FY2"/>
-      <c r="FZ2"/>
-      <c r="GA2"/>
-      <c r="GB2"/>
-      <c r="GC2"/>
-      <c r="GD2"/>
-      <c r="GE2"/>
-      <c r="GF2"/>
-      <c r="GG2"/>
-      <c r="GH2"/>
-      <c r="GI2"/>
-      <c r="GJ2"/>
-      <c r="GK2"/>
-      <c r="GL2"/>
-      <c r="GM2"/>
-      <c r="GN2"/>
-      <c r="GO2"/>
-      <c r="GP2"/>
-      <c r="GQ2"/>
-      <c r="GR2"/>
-      <c r="GS2"/>
-      <c r="GT2"/>
-      <c r="GU2"/>
-      <c r="GV2"/>
-      <c r="GW2"/>
-      <c r="GX2"/>
-      <c r="GY2"/>
-      <c r="GZ2"/>
-      <c r="HA2"/>
-      <c r="HB2"/>
-      <c r="HC2"/>
-      <c r="HD2"/>
-      <c r="HE2"/>
-      <c r="HF2"/>
-      <c r="HG2"/>
-      <c r="HH2"/>
-      <c r="HI2"/>
-      <c r="HJ2"/>
-      <c r="HK2"/>
-      <c r="HL2"/>
-      <c r="HM2"/>
-      <c r="HN2"/>
-      <c r="HO2"/>
-      <c r="HP2"/>
-      <c r="HQ2"/>
-      <c r="HR2"/>
-      <c r="HS2"/>
-      <c r="HT2"/>
-      <c r="HU2"/>
-      <c r="HV2"/>
-      <c r="HW2"/>
-      <c r="HX2"/>
-      <c r="HY2"/>
-      <c r="HZ2"/>
-      <c r="IA2"/>
-      <c r="IB2"/>
-      <c r="IC2"/>
-      <c r="ID2"/>
-      <c r="IE2"/>
-      <c r="IF2"/>
-      <c r="IG2"/>
-      <c r="IH2"/>
-      <c r="II2"/>
-      <c r="IJ2"/>
-      <c r="IK2"/>
-      <c r="IL2"/>
-      <c r="IM2"/>
-      <c r="IN2"/>
-      <c r="IO2"/>
-      <c r="IP2"/>
-      <c r="IQ2"/>
-      <c r="IR2"/>
-      <c r="IS2"/>
-      <c r="IT2"/>
-      <c r="IU2"/>
-      <c r="IV2"/>
-      <c r="IW2"/>
-      <c r="IX2"/>
-      <c r="IY2"/>
-      <c r="IZ2"/>
-      <c r="JA2"/>
-      <c r="JB2"/>
-      <c r="JC2"/>
-      <c r="JD2"/>
-      <c r="JE2"/>
-      <c r="JF2"/>
-      <c r="JG2"/>
-      <c r="JH2"/>
-      <c r="JI2"/>
-      <c r="JJ2"/>
-      <c r="JK2"/>
-      <c r="JL2"/>
-      <c r="JM2"/>
-      <c r="JN2"/>
-      <c r="JO2"/>
-      <c r="JP2"/>
-      <c r="JQ2"/>
-      <c r="JR2"/>
-      <c r="JS2"/>
-      <c r="JT2"/>
-      <c r="JU2"/>
-      <c r="JV2"/>
-      <c r="JW2"/>
-      <c r="JX2"/>
-      <c r="JY2"/>
-      <c r="JZ2"/>
-      <c r="KA2"/>
-      <c r="KB2"/>
-      <c r="KC2"/>
-      <c r="KD2"/>
-      <c r="KE2"/>
-      <c r="KF2"/>
-      <c r="KG2"/>
-      <c r="KH2"/>
-      <c r="KI2"/>
-      <c r="KJ2"/>
-      <c r="KK2"/>
-      <c r="KL2"/>
-      <c r="KM2"/>
-      <c r="KN2"/>
-      <c r="KO2"/>
-      <c r="KP2"/>
-      <c r="KQ2"/>
-      <c r="KR2"/>
-      <c r="KS2"/>
-      <c r="KT2"/>
-      <c r="KU2"/>
-      <c r="KV2"/>
-      <c r="KW2"/>
-      <c r="KX2"/>
-      <c r="KY2"/>
-      <c r="KZ2"/>
-      <c r="LA2"/>
-      <c r="LB2"/>
-      <c r="LC2"/>
-      <c r="LD2"/>
-      <c r="LE2"/>
-      <c r="LF2"/>
-      <c r="LG2"/>
-      <c r="LH2"/>
-      <c r="LI2"/>
-      <c r="LJ2"/>
-      <c r="LK2"/>
-      <c r="LL2"/>
-      <c r="LM2"/>
-      <c r="LN2"/>
-      <c r="LO2"/>
-      <c r="LP2"/>
-      <c r="LQ2"/>
-      <c r="LR2"/>
-      <c r="LS2"/>
-      <c r="LT2"/>
-      <c r="LU2"/>
-      <c r="LV2"/>
-      <c r="LW2"/>
-      <c r="LX2"/>
-      <c r="LY2"/>
-      <c r="LZ2"/>
-      <c r="MA2"/>
-      <c r="MB2"/>
-      <c r="MC2"/>
-      <c r="MD2"/>
-      <c r="ME2"/>
-      <c r="MF2"/>
-      <c r="MG2"/>
-      <c r="MH2"/>
-      <c r="MI2"/>
-      <c r="MJ2"/>
-      <c r="MK2"/>
-      <c r="ML2"/>
-      <c r="MM2"/>
-      <c r="MN2"/>
-      <c r="MO2"/>
-      <c r="MP2" t="n">
-        <v>11.715254237288136</v>
-      </c>
-      <c r="MQ2"/>
-      <c r="MR2"/>
-      <c r="MS2"/>
-      <c r="MT2"/>
-      <c r="MU2" t="n">
-        <v>9.43728813559322</v>
-      </c>
-      <c r="MV2"/>
-      <c r="MW2"/>
-      <c r="MX2"/>
-      <c r="MY2"/>
-      <c r="MZ2" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="NA2"/>
-      <c r="NB2"/>
-      <c r="NC2"/>
-      <c r="ND2"/>
-      <c r="NE2" t="n">
-        <v>28.271186440677965</v>
-      </c>
-      <c r="NF2"/>
-      <c r="NG2"/>
-      <c r="NH2"/>
-      <c r="NI2"/>
-      <c r="NJ2"/>
-      <c r="NK2"/>
-      <c r="NL2"/>
-      <c r="NM2"/>
-      <c r="NN2"/>
-      <c r="NO2"/>
-      <c r="NP2"/>
-      <c r="NQ2"/>
-      <c r="NR2"/>
-      <c r="NS2"/>
-      <c r="NT2"/>
-      <c r="NU2"/>
-      <c r="NV2"/>
-      <c r="NW2"/>
-      <c r="NX2"/>
-      <c r="NY2"/>
-      <c r="NZ2"/>
-      <c r="OA2"/>
-      <c r="OB2"/>
-      <c r="OC2"/>
-      <c r="OD2"/>
-      <c r="OE2"/>
-      <c r="OF2"/>
-      <c r="OG2"/>
-      <c r="OH2" t="n">
-        <v>66.56184486373165</v>
-      </c>
-      <c r="OI2"/>
-      <c r="OJ2"/>
-      <c r="OK2"/>
-      <c r="OL2"/>
-      <c r="OM2"/>
-      <c r="ON2"/>
-      <c r="OO2"/>
-      <c r="OP2"/>
-      <c r="OQ2"/>
-      <c r="OR2"/>
-      <c r="OS2"/>
-      <c r="OT2"/>
-      <c r="OU2"/>
-      <c r="OV2"/>
-      <c r="OW2"/>
-      <c r="OX2"/>
-      <c r="OY2"/>
-      <c r="OZ2"/>
-      <c r="PA2" t="n">
-        <v>191.58232931726909</v>
-      </c>
-      <c r="PB2"/>
-      <c r="PC2"/>
-      <c r="PD2"/>
-      <c r="PE2" t="n">
-        <v>221.71430034828927</v>
-      </c>
-      <c r="PF2"/>
-      <c r="PG2" t="n">
-        <v>207.04005326777298</v>
-      </c>
-      <c r="PH2"/>
-      <c r="PI2" t="n">
-        <v>116.35679164105716</v>
-      </c>
-      <c r="PJ2"/>
-      <c r="PK2" t="n">
-        <v>39.14441131384737</v>
-      </c>
-      <c r="PL2"/>
-      <c r="PM2"/>
-      <c r="PN2"/>
-      <c r="PO2"/>
-      <c r="PP2"/>
-      <c r="PQ2" t="n">
-        <v>174.3378707240999</v>
-      </c>
-      <c r="PR2" t="n">
-        <v>210.69094589358187</v>
-      </c>
-      <c r="PS2" t="n">
-        <v>253.2373539451988</v>
-      </c>
-      <c r="PT2" t="n">
-        <v>256.9859617012273</v>
-      </c>
-      <c r="PU2" t="n">
-        <v>198.20383517126294</v>
-      </c>
-      <c r="PV2" t="n">
-        <v>221.54958305619053</v>
-      </c>
-      <c r="PW2" t="n">
-        <v>249.1744566833829</v>
-      </c>
-      <c r="PX2" t="n">
-        <v>272.0500632131094</v>
-      </c>
-      <c r="PY2" t="n">
-        <v>253.90301762970367</v>
-      </c>
-      <c r="PZ2" t="n">
-        <v>239.5177744638773</v>
-      </c>
-      <c r="QA2" t="n">
-        <v>247.3697358994482</v>
-      </c>
-      <c r="QB2" t="n">
-        <v>237.3167519496876</v>
-      </c>
-      <c r="QC2" t="n">
-        <v>239.3882682668224</v>
-      </c>
-      <c r="QD2" t="n">
-        <v>203.92485690141908</v>
-      </c>
-      <c r="QE2" t="n">
-        <v>215.11921605483312</v>
-      </c>
-      <c r="QF2" t="n">
-        <v>232.42231400407576</v>
-      </c>
-      <c r="QG2" t="n">
-        <v>237.95678044424136</v>
-      </c>
-      <c r="QH2" t="n">
-        <v>205.40611599465086</v>
-      </c>
-      <c r="QI2" t="n">
-        <v>94.00328015205862</v>
-      </c>
-      <c r="QJ2" t="n">
-        <v>86.95579010591206</v>
-      </c>
-      <c r="QK2" t="n">
-        <v>97.49613719259577</v>
-      </c>
-      <c r="QL2" t="n">
-        <v>109.98202879072167</v>
-      </c>
-      <c r="QM2" t="n">
-        <v>137.03473508924174</v>
-      </c>
-      <c r="QN2" t="n">
-        <v>175.85389115785148</v>
-      </c>
-      <c r="QO2" t="n">
-        <v>230.6049660957882</v>
-      </c>
-      <c r="QP2" t="n">
-        <v>237.3231300094847</v>
-      </c>
-      <c r="QQ2" t="n">
-        <v>240.26738534848812</v>
-      </c>
-      <c r="QR2" t="n">
-        <v>228.28230940327558</v>
-      </c>
-      <c r="QS2" t="n">
-        <v>232.48481451339075</v>
-      </c>
-      <c r="QT2" t="n">
-        <v>217.41918388977214</v>
-      </c>
-      <c r="QU2" t="n">
-        <v>261.4937430202582</v>
-      </c>
-      <c r="QV2" t="n">
-        <v>280.6668478567436</v>
-      </c>
-      <c r="QW2" t="n">
-        <v>299.94004222236777</v>
-      </c>
-      <c r="QX2" t="n">
-        <v>291.14030613508174</v>
-      </c>
-      <c r="QY2" t="n">
-        <v>309.9208165730036</v>
-      </c>
-      <c r="QZ2" t="n">
-        <v>330.7623811424452</v>
-      </c>
-      <c r="RA2" t="n">
-        <v>359.03995583823644</v>
-      </c>
-      <c r="RB2" t="n">
-        <v>343.06586801151417</v>
-      </c>
-      <c r="RC2" t="n">
-        <v>360.67367224611763</v>
-      </c>
-      <c r="RD2" t="n">
-        <v>348.1238677739335</v>
-      </c>
-      <c r="RE2" t="n">
-        <v>345.8185952187042</v>
-      </c>
-      <c r="RF2" t="n">
-        <v>332.16577433933736</v>
-      </c>
-      <c r="RG2" t="n">
-        <v>314.7920708692597</v>
-      </c>
-      <c r="RH2" t="n">
-        <v>316.1429965642877</v>
-      </c>
-      <c r="RI2" t="n">
-        <v>319.7672490699484</v>
-      </c>
-      <c r="RJ2" t="n">
-        <v>312.0257742799502</v>
-      </c>
-      <c r="RK2" t="n">
-        <v>325.3860689686248</v>
-      </c>
-      <c r="RL2" t="n">
-        <v>349.0881997693822</v>
-      </c>
-      <c r="RM2" t="n">
-        <v>325.68095681365793</v>
-      </c>
-      <c r="RN2" t="n">
-        <v>321.15348065642553</v>
-      </c>
-      <c r="RO2" t="n">
-        <v>344.2734521013213</v>
-      </c>
-      <c r="RP2" t="n">
-        <v>309.1992981309125</v>
-      </c>
-      <c r="RQ2" t="n">
-        <v>327.60474138376196</v>
-      </c>
-      <c r="RR2" t="n">
-        <v>329.42413732837616</v>
-      </c>
-      <c r="RS2" t="n">
-        <v>323.97296922830355</v>
-      </c>
-      <c r="RT2" t="n">
-        <v>305.44004839905347</v>
-      </c>
-      <c r="RU2" t="n">
-        <v>303.37713396798205</v>
-      </c>
-      <c r="RV2" t="n">
-        <v>309.5851300048873</v>
-      </c>
-      <c r="RW2" t="n">
-        <v>298.36165448945235</v>
-      </c>
-      <c r="RX2" t="n">
-        <v>302.8378357200097</v>
-      </c>
-      <c r="RY2" t="n">
-        <v>300.6828049703597</v>
-      </c>
-      <c r="RZ2" t="n">
-        <v>302.4064105666786</v>
-      </c>
-      <c r="SA2" t="n">
-        <v>297.71726113263003</v>
-      </c>
-      <c r="SB2" t="n">
-        <v>293.617534516154</v>
-      </c>
-      <c r="SC2" t="n">
-        <v>286.2952967577058</v>
-      </c>
-      <c r="SD2" t="n">
-        <v>267.0846088813106</v>
-      </c>
-      <c r="SE2" t="n">
-        <v>237.69638331066875</v>
-      </c>
-      <c r="SF2" t="n">
-        <v>117.43427607086971</v>
-      </c>
-      <c r="SG2" t="n">
-        <v>98.69734015205151</v>
-      </c>
-      <c r="SH2" t="n">
-        <v>99.64209132201617</v>
-      </c>
-      <c r="SI2" t="n">
-        <v>104.41448787404558</v>
-      </c>
-      <c r="SJ2" t="n">
-        <v>115.60064958467744</v>
-      </c>
-      <c r="SK2" t="n">
-        <v>124.68637009751289</v>
-      </c>
-      <c r="SL2"/>
-      <c r="SM2"/>
-      <c r="SN2"/>
-      <c r="SO2"/>
-      <c r="SP2"/>
-      <c r="SQ2"/>
-      <c r="SR2"/>
-      <c r="SS2"/>
-      <c r="ST2"/>
-      <c r="SU2"/>
-      <c r="SV2"/>
-      <c r="SW2"/>
-      <c r="SX2"/>
-      <c r="SY2"/>
-      <c r="SZ2"/>
-      <c r="TA2"/>
-      <c r="TB2"/>
-      <c r="TC2"/>
-      <c r="TD2"/>
+        <v>528</v>
+      </c>
+      <c r="I2" t="s">
+        <v>525</v>
+      </c>
+      <c r="J2" t="s">
+        <v>525</v>
+      </c>
+      <c r="K2" t="s">
+        <v>525</v>
+      </c>
+      <c r="L2" t="s">
+        <v>525</v>
+      </c>
+      <c r="M2" t="s">
+        <v>525</v>
+      </c>
+      <c r="N2" t="s">
+        <v>525</v>
+      </c>
+      <c r="O2" t="s">
+        <v>525</v>
+      </c>
+      <c r="P2" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>525</v>
+      </c>
+      <c r="R2" t="s">
+        <v>525</v>
+      </c>
+      <c r="S2" t="s">
+        <v>525</v>
+      </c>
+      <c r="T2" t="s">
+        <v>525</v>
+      </c>
+      <c r="U2" t="s">
+        <v>525</v>
+      </c>
+      <c r="V2" t="s">
+        <v>525</v>
+      </c>
+      <c r="W2" t="s">
+        <v>525</v>
+      </c>
+      <c r="X2" t="s">
+        <v>525</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>525</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>525</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>525</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>525</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>525</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>525</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>525</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>525</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>525</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>525</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>525</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>525</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>525</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>525</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>525</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>525</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>525</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>525</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>525</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>525</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>525</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>525</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>525</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>525</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>525</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>525</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>525</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>525</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>525</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>525</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>525</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>525</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>525</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>525</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>525</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>525</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>525</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>525</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>525</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>525</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>525</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>525</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>525</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>525</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>525</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>525</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>525</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>525</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>525</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>525</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>525</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>525</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>525</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>525</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>525</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>525</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>525</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>525</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>525</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>525</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>525</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>525</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>525</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>525</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>525</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>525</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>525</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>525</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>525</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>525</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>525</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>525</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>525</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>525</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>525</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>525</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>525</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>525</v>
+      </c>
+      <c r="CY2" t="s">
+        <v>525</v>
+      </c>
+      <c r="CZ2" t="s">
+        <v>525</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>525</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>525</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>525</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>525</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>525</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>525</v>
+      </c>
+      <c r="DG2" t="s">
+        <v>525</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>525</v>
+      </c>
+      <c r="DI2" t="s">
+        <v>525</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>525</v>
+      </c>
+      <c r="DK2" t="s">
+        <v>525</v>
+      </c>
+      <c r="DL2" t="s">
+        <v>525</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>525</v>
+      </c>
+      <c r="DN2" t="s">
+        <v>525</v>
+      </c>
+      <c r="DO2" t="s">
+        <v>525</v>
+      </c>
+      <c r="DP2" t="s">
+        <v>525</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>525</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>525</v>
+      </c>
+      <c r="DS2" t="s">
+        <v>525</v>
+      </c>
+      <c r="DT2" t="s">
+        <v>525</v>
+      </c>
+      <c r="DU2" t="s">
+        <v>525</v>
+      </c>
+      <c r="DV2" t="s">
+        <v>525</v>
+      </c>
+      <c r="DW2" t="s">
+        <v>525</v>
+      </c>
+      <c r="DX2" t="s">
+        <v>525</v>
+      </c>
+      <c r="DY2" t="s">
+        <v>525</v>
+      </c>
+      <c r="DZ2" t="s">
+        <v>525</v>
+      </c>
+      <c r="EA2" t="s">
+        <v>525</v>
+      </c>
+      <c r="EB2" t="s">
+        <v>525</v>
+      </c>
+      <c r="EC2" t="s">
+        <v>525</v>
+      </c>
+      <c r="ED2" t="s">
+        <v>525</v>
+      </c>
+      <c r="EE2" t="s">
+        <v>525</v>
+      </c>
+      <c r="EF2" t="s">
+        <v>525</v>
+      </c>
+      <c r="EG2" t="s">
+        <v>525</v>
+      </c>
+      <c r="EH2" t="s">
+        <v>525</v>
+      </c>
+      <c r="EI2" t="s">
+        <v>525</v>
+      </c>
+      <c r="EJ2" t="s">
+        <v>525</v>
+      </c>
+      <c r="EK2" t="s">
+        <v>525</v>
+      </c>
+      <c r="EL2" t="s">
+        <v>525</v>
+      </c>
+      <c r="EM2" t="s">
+        <v>525</v>
+      </c>
+      <c r="EN2" t="s">
+        <v>525</v>
+      </c>
+      <c r="EO2" t="s">
+        <v>525</v>
+      </c>
+      <c r="EP2" t="s">
+        <v>525</v>
+      </c>
+      <c r="EQ2" t="s">
+        <v>525</v>
+      </c>
+      <c r="ER2" t="s">
+        <v>525</v>
+      </c>
+      <c r="ES2" t="s">
+        <v>525</v>
+      </c>
+      <c r="ET2" t="s">
+        <v>525</v>
+      </c>
+      <c r="EU2" t="s">
+        <v>525</v>
+      </c>
+      <c r="EV2" t="s">
+        <v>525</v>
+      </c>
+      <c r="EW2" t="s">
+        <v>525</v>
+      </c>
+      <c r="EX2" t="s">
+        <v>525</v>
+      </c>
+      <c r="EY2" t="s">
+        <v>525</v>
+      </c>
+      <c r="EZ2" t="s">
+        <v>525</v>
+      </c>
+      <c r="FA2" t="s">
+        <v>525</v>
+      </c>
+      <c r="FB2" t="s">
+        <v>525</v>
+      </c>
+      <c r="FC2" t="s">
+        <v>525</v>
+      </c>
+      <c r="FD2" t="s">
+        <v>525</v>
+      </c>
+      <c r="FE2" t="s">
+        <v>525</v>
+      </c>
+      <c r="FF2" t="s">
+        <v>525</v>
+      </c>
+      <c r="FG2" t="s">
+        <v>525</v>
+      </c>
+      <c r="FH2" t="s">
+        <v>525</v>
+      </c>
+      <c r="FI2" t="s">
+        <v>525</v>
+      </c>
+      <c r="FJ2" t="s">
+        <v>525</v>
+      </c>
+      <c r="FK2" t="s">
+        <v>525</v>
+      </c>
+      <c r="FL2" t="s">
+        <v>525</v>
+      </c>
+      <c r="FM2" t="s">
+        <v>525</v>
+      </c>
+      <c r="FN2" t="s">
+        <v>525</v>
+      </c>
+      <c r="FO2" t="s">
+        <v>525</v>
+      </c>
+      <c r="FP2" t="s">
+        <v>525</v>
+      </c>
+      <c r="FQ2" t="s">
+        <v>525</v>
+      </c>
+      <c r="FR2" t="s">
+        <v>525</v>
+      </c>
+      <c r="FS2" t="s">
+        <v>525</v>
+      </c>
+      <c r="FT2" t="s">
+        <v>525</v>
+      </c>
+      <c r="FU2" t="s">
+        <v>525</v>
+      </c>
+      <c r="FV2" t="s">
+        <v>525</v>
+      </c>
+      <c r="FW2" t="s">
+        <v>525</v>
+      </c>
+      <c r="FX2" t="s">
+        <v>525</v>
+      </c>
+      <c r="FY2" t="s">
+        <v>525</v>
+      </c>
+      <c r="FZ2" t="s">
+        <v>525</v>
+      </c>
+      <c r="GA2" t="s">
+        <v>525</v>
+      </c>
+      <c r="GB2" t="s">
+        <v>525</v>
+      </c>
+      <c r="GC2" t="s">
+        <v>525</v>
+      </c>
+      <c r="GD2" t="s">
+        <v>525</v>
+      </c>
+      <c r="GE2" t="s">
+        <v>525</v>
+      </c>
+      <c r="GF2" t="s">
+        <v>525</v>
+      </c>
+      <c r="GG2" t="s">
+        <v>525</v>
+      </c>
+      <c r="GH2" t="s">
+        <v>525</v>
+      </c>
+      <c r="GI2" t="s">
+        <v>525</v>
+      </c>
+      <c r="GJ2" t="s">
+        <v>525</v>
+      </c>
+      <c r="GK2" t="s">
+        <v>525</v>
+      </c>
+      <c r="GL2" t="s">
+        <v>525</v>
+      </c>
+      <c r="GM2" t="s">
+        <v>525</v>
+      </c>
+      <c r="GN2" t="s">
+        <v>525</v>
+      </c>
+      <c r="GO2" t="s">
+        <v>525</v>
+      </c>
+      <c r="GP2" t="s">
+        <v>525</v>
+      </c>
+      <c r="GQ2" t="s">
+        <v>525</v>
+      </c>
+      <c r="GR2" t="s">
+        <v>525</v>
+      </c>
+      <c r="GS2" t="s">
+        <v>525</v>
+      </c>
+      <c r="GT2" t="s">
+        <v>525</v>
+      </c>
+      <c r="GU2" t="s">
+        <v>525</v>
+      </c>
+      <c r="GV2" t="s">
+        <v>525</v>
+      </c>
+      <c r="GW2" t="s">
+        <v>525</v>
+      </c>
+      <c r="GX2" t="s">
+        <v>525</v>
+      </c>
+      <c r="GY2" t="s">
+        <v>525</v>
+      </c>
+      <c r="GZ2" t="s">
+        <v>525</v>
+      </c>
+      <c r="HA2" t="s">
+        <v>525</v>
+      </c>
+      <c r="HB2" t="s">
+        <v>525</v>
+      </c>
+      <c r="HC2" t="s">
+        <v>525</v>
+      </c>
+      <c r="HD2" t="s">
+        <v>525</v>
+      </c>
+      <c r="HE2" t="s">
+        <v>525</v>
+      </c>
+      <c r="HF2" t="s">
+        <v>525</v>
+      </c>
+      <c r="HG2" t="s">
+        <v>525</v>
+      </c>
+      <c r="HH2" t="s">
+        <v>525</v>
+      </c>
+      <c r="HI2" t="s">
+        <v>525</v>
+      </c>
+      <c r="HJ2" t="s">
+        <v>525</v>
+      </c>
+      <c r="HK2" t="s">
+        <v>525</v>
+      </c>
+      <c r="HL2" t="s">
+        <v>525</v>
+      </c>
+      <c r="HM2" t="s">
+        <v>525</v>
+      </c>
+      <c r="HN2" t="s">
+        <v>525</v>
+      </c>
+      <c r="HO2" t="s">
+        <v>525</v>
+      </c>
+      <c r="HP2" t="s">
+        <v>525</v>
+      </c>
+      <c r="HQ2" t="s">
+        <v>525</v>
+      </c>
+      <c r="HR2" t="s">
+        <v>525</v>
+      </c>
+      <c r="HS2" t="s">
+        <v>525</v>
+      </c>
+      <c r="HT2" t="s">
+        <v>525</v>
+      </c>
+      <c r="HU2" t="s">
+        <v>525</v>
+      </c>
+      <c r="HV2" t="s">
+        <v>525</v>
+      </c>
+      <c r="HW2" t="s">
+        <v>525</v>
+      </c>
+      <c r="HX2" t="s">
+        <v>525</v>
+      </c>
+      <c r="HY2" t="s">
+        <v>525</v>
+      </c>
+      <c r="HZ2" t="s">
+        <v>525</v>
+      </c>
+      <c r="IA2" t="s">
+        <v>525</v>
+      </c>
+      <c r="IB2" t="s">
+        <v>525</v>
+      </c>
+      <c r="IC2" t="s">
+        <v>525</v>
+      </c>
+      <c r="ID2" t="s">
+        <v>525</v>
+      </c>
+      <c r="IE2" t="s">
+        <v>525</v>
+      </c>
+      <c r="IF2" t="s">
+        <v>525</v>
+      </c>
+      <c r="IG2" t="s">
+        <v>525</v>
+      </c>
+      <c r="IH2" t="s">
+        <v>525</v>
+      </c>
+      <c r="II2" t="s">
+        <v>525</v>
+      </c>
+      <c r="IJ2" t="s">
+        <v>525</v>
+      </c>
+      <c r="IK2" t="s">
+        <v>525</v>
+      </c>
+      <c r="IL2" t="s">
+        <v>525</v>
+      </c>
+      <c r="IM2" t="s">
+        <v>525</v>
+      </c>
+      <c r="IN2" t="s">
+        <v>525</v>
+      </c>
+      <c r="IO2" t="s">
+        <v>525</v>
+      </c>
+      <c r="IP2" t="s">
+        <v>525</v>
+      </c>
+      <c r="IQ2" t="s">
+        <v>525</v>
+      </c>
+      <c r="IR2" t="s">
+        <v>525</v>
+      </c>
+      <c r="IS2" t="s">
+        <v>525</v>
+      </c>
+      <c r="IT2" t="s">
+        <v>525</v>
+      </c>
+      <c r="IU2" t="s">
+        <v>525</v>
+      </c>
+      <c r="IV2" t="s">
+        <v>525</v>
+      </c>
+      <c r="IW2" t="s">
+        <v>525</v>
+      </c>
+      <c r="IX2" t="s">
+        <v>525</v>
+      </c>
+      <c r="IY2" t="s">
+        <v>525</v>
+      </c>
+      <c r="IZ2" t="s">
+        <v>525</v>
+      </c>
+      <c r="JA2" t="s">
+        <v>525</v>
+      </c>
+      <c r="JB2" t="s">
+        <v>525</v>
+      </c>
+      <c r="JC2" t="s">
+        <v>525</v>
+      </c>
+      <c r="JD2" t="s">
+        <v>525</v>
+      </c>
+      <c r="JE2" t="s">
+        <v>525</v>
+      </c>
+      <c r="JF2" t="s">
+        <v>525</v>
+      </c>
+      <c r="JG2" t="s">
+        <v>525</v>
+      </c>
+      <c r="JH2" t="s">
+        <v>525</v>
+      </c>
+      <c r="JI2" t="s">
+        <v>525</v>
+      </c>
+      <c r="JJ2" t="s">
+        <v>525</v>
+      </c>
+      <c r="JK2" t="s">
+        <v>525</v>
+      </c>
+      <c r="JL2" t="s">
+        <v>525</v>
+      </c>
+      <c r="JM2" t="s">
+        <v>525</v>
+      </c>
+      <c r="JN2" t="s">
+        <v>525</v>
+      </c>
+      <c r="JO2" t="s">
+        <v>525</v>
+      </c>
+      <c r="JP2" t="s">
+        <v>525</v>
+      </c>
+      <c r="JQ2" t="s">
+        <v>525</v>
+      </c>
+      <c r="JR2" t="s">
+        <v>525</v>
+      </c>
+      <c r="JS2" t="s">
+        <v>525</v>
+      </c>
+      <c r="JT2" t="s">
+        <v>525</v>
+      </c>
+      <c r="JU2" t="s">
+        <v>525</v>
+      </c>
+      <c r="JV2" t="s">
+        <v>525</v>
+      </c>
+      <c r="JW2" t="s">
+        <v>525</v>
+      </c>
+      <c r="JX2" t="s">
+        <v>525</v>
+      </c>
+      <c r="JY2" t="s">
+        <v>525</v>
+      </c>
+      <c r="JZ2" t="s">
+        <v>525</v>
+      </c>
+      <c r="KA2" t="s">
+        <v>525</v>
+      </c>
+      <c r="KB2" t="s">
+        <v>525</v>
+      </c>
+      <c r="KC2" t="s">
+        <v>525</v>
+      </c>
+      <c r="KD2" t="s">
+        <v>525</v>
+      </c>
+      <c r="KE2" t="s">
+        <v>525</v>
+      </c>
+      <c r="KF2" t="s">
+        <v>525</v>
+      </c>
+      <c r="KG2" t="s">
+        <v>525</v>
+      </c>
+      <c r="KH2" t="s">
+        <v>525</v>
+      </c>
+      <c r="KI2" t="s">
+        <v>525</v>
+      </c>
+      <c r="KJ2" t="s">
+        <v>525</v>
+      </c>
+      <c r="KK2" t="s">
+        <v>525</v>
+      </c>
+      <c r="KL2" t="s">
+        <v>525</v>
+      </c>
+      <c r="KM2" t="s">
+        <v>525</v>
+      </c>
+      <c r="KN2" t="s">
+        <v>525</v>
+      </c>
+      <c r="KO2" t="s">
+        <v>525</v>
+      </c>
+      <c r="KP2" t="s">
+        <v>525</v>
+      </c>
+      <c r="KQ2" t="s">
+        <v>525</v>
+      </c>
+      <c r="KR2" t="s">
+        <v>525</v>
+      </c>
+      <c r="KS2" t="s">
+        <v>525</v>
+      </c>
+      <c r="KT2" t="s">
+        <v>525</v>
+      </c>
+      <c r="KU2" t="s">
+        <v>525</v>
+      </c>
+      <c r="KV2" t="s">
+        <v>525</v>
+      </c>
+      <c r="KW2" t="s">
+        <v>525</v>
+      </c>
+      <c r="KX2" t="s">
+        <v>525</v>
+      </c>
+      <c r="KY2" t="s">
+        <v>525</v>
+      </c>
+      <c r="KZ2" t="s">
+        <v>525</v>
+      </c>
+      <c r="LA2" t="s">
+        <v>525</v>
+      </c>
+      <c r="LB2" t="s">
+        <v>525</v>
+      </c>
+      <c r="LC2" t="s">
+        <v>525</v>
+      </c>
+      <c r="LD2" t="s">
+        <v>525</v>
+      </c>
+      <c r="LE2" t="s">
+        <v>525</v>
+      </c>
+      <c r="LF2" t="s">
+        <v>525</v>
+      </c>
+      <c r="LG2" t="s">
+        <v>525</v>
+      </c>
+      <c r="LH2" t="s">
+        <v>525</v>
+      </c>
+      <c r="LI2" t="s">
+        <v>525</v>
+      </c>
+      <c r="LJ2" t="s">
+        <v>525</v>
+      </c>
+      <c r="LK2" t="s">
+        <v>525</v>
+      </c>
+      <c r="LL2" t="s">
+        <v>525</v>
+      </c>
+      <c r="LM2" t="s">
+        <v>525</v>
+      </c>
+      <c r="LN2" t="s">
+        <v>525</v>
+      </c>
+      <c r="LO2" t="s">
+        <v>525</v>
+      </c>
+      <c r="LP2" t="s">
+        <v>525</v>
+      </c>
+      <c r="LQ2" t="s">
+        <v>525</v>
+      </c>
+      <c r="LR2" t="s">
+        <v>525</v>
+      </c>
+      <c r="LS2" t="s">
+        <v>525</v>
+      </c>
+      <c r="LT2" t="s">
+        <v>525</v>
+      </c>
+      <c r="LU2" t="s">
+        <v>525</v>
+      </c>
+      <c r="LV2" t="s">
+        <v>525</v>
+      </c>
+      <c r="LW2" t="s">
+        <v>525</v>
+      </c>
+      <c r="LX2" t="s">
+        <v>525</v>
+      </c>
+      <c r="LY2" t="s">
+        <v>525</v>
+      </c>
+      <c r="LZ2" t="s">
+        <v>525</v>
+      </c>
+      <c r="MA2" t="s">
+        <v>525</v>
+      </c>
+      <c r="MB2" t="s">
+        <v>525</v>
+      </c>
+      <c r="MC2" t="s">
+        <v>525</v>
+      </c>
+      <c r="MD2" t="s">
+        <v>525</v>
+      </c>
+      <c r="ME2" t="s">
+        <v>525</v>
+      </c>
+      <c r="MF2" t="s">
+        <v>525</v>
+      </c>
+      <c r="MG2" t="s">
+        <v>525</v>
+      </c>
+      <c r="MH2" t="s">
+        <v>525</v>
+      </c>
+      <c r="MI2" t="s">
+        <v>525</v>
+      </c>
+      <c r="MJ2" t="s">
+        <v>525</v>
+      </c>
+      <c r="MK2" t="s">
+        <v>525</v>
+      </c>
+      <c r="ML2" t="s">
+        <v>525</v>
+      </c>
+      <c r="MM2" t="s">
+        <v>525</v>
+      </c>
+      <c r="MN2" t="s">
+        <v>525</v>
+      </c>
+      <c r="MO2" t="s">
+        <v>525</v>
+      </c>
+      <c r="MP2" t="s">
+        <v>529</v>
+      </c>
+      <c r="MQ2" t="s">
+        <v>525</v>
+      </c>
+      <c r="MR2" t="s">
+        <v>525</v>
+      </c>
+      <c r="MS2" t="s">
+        <v>525</v>
+      </c>
+      <c r="MT2" t="s">
+        <v>525</v>
+      </c>
+      <c r="MU2" t="s">
+        <v>530</v>
+      </c>
+      <c r="MV2" t="s">
+        <v>525</v>
+      </c>
+      <c r="MW2" t="s">
+        <v>525</v>
+      </c>
+      <c r="MX2" t="s">
+        <v>525</v>
+      </c>
+      <c r="MY2" t="s">
+        <v>525</v>
+      </c>
+      <c r="MZ2" t="s">
+        <v>531</v>
+      </c>
+      <c r="NA2" t="s">
+        <v>525</v>
+      </c>
+      <c r="NB2" t="s">
+        <v>525</v>
+      </c>
+      <c r="NC2" t="s">
+        <v>525</v>
+      </c>
+      <c r="ND2" t="s">
+        <v>525</v>
+      </c>
+      <c r="NE2" t="s">
+        <v>532</v>
+      </c>
+      <c r="NF2" t="s">
+        <v>525</v>
+      </c>
+      <c r="NG2" t="s">
+        <v>525</v>
+      </c>
+      <c r="NH2" t="s">
+        <v>525</v>
+      </c>
+      <c r="NI2" t="s">
+        <v>525</v>
+      </c>
+      <c r="NJ2" t="s">
+        <v>525</v>
+      </c>
+      <c r="NK2" t="s">
+        <v>525</v>
+      </c>
+      <c r="NL2" t="s">
+        <v>525</v>
+      </c>
+      <c r="NM2" t="s">
+        <v>525</v>
+      </c>
+      <c r="NN2" t="s">
+        <v>525</v>
+      </c>
+      <c r="NO2" t="s">
+        <v>525</v>
+      </c>
+      <c r="NP2" t="s">
+        <v>525</v>
+      </c>
+      <c r="NQ2" t="s">
+        <v>525</v>
+      </c>
+      <c r="NR2" t="s">
+        <v>525</v>
+      </c>
+      <c r="NS2" t="s">
+        <v>525</v>
+      </c>
+      <c r="NT2" t="s">
+        <v>525</v>
+      </c>
+      <c r="NU2" t="s">
+        <v>525</v>
+      </c>
+      <c r="NV2" t="s">
+        <v>525</v>
+      </c>
+      <c r="NW2" t="s">
+        <v>525</v>
+      </c>
+      <c r="NX2" t="s">
+        <v>525</v>
+      </c>
+      <c r="NY2" t="s">
+        <v>525</v>
+      </c>
+      <c r="NZ2" t="s">
+        <v>525</v>
+      </c>
+      <c r="OA2" t="s">
+        <v>525</v>
+      </c>
+      <c r="OB2" t="s">
+        <v>525</v>
+      </c>
+      <c r="OC2" t="s">
+        <v>525</v>
+      </c>
+      <c r="OD2" t="s">
+        <v>525</v>
+      </c>
+      <c r="OE2" t="s">
+        <v>525</v>
+      </c>
+      <c r="OF2" t="s">
+        <v>525</v>
+      </c>
+      <c r="OG2" t="s">
+        <v>525</v>
+      </c>
+      <c r="OH2" t="s">
+        <v>533</v>
+      </c>
+      <c r="OI2" t="s">
+        <v>525</v>
+      </c>
+      <c r="OJ2" t="s">
+        <v>525</v>
+      </c>
+      <c r="OK2" t="s">
+        <v>525</v>
+      </c>
+      <c r="OL2" t="s">
+        <v>525</v>
+      </c>
+      <c r="OM2" t="s">
+        <v>525</v>
+      </c>
+      <c r="ON2" t="s">
+        <v>525</v>
+      </c>
+      <c r="OO2" t="s">
+        <v>525</v>
+      </c>
+      <c r="OP2" t="s">
+        <v>525</v>
+      </c>
+      <c r="OQ2" t="s">
+        <v>525</v>
+      </c>
+      <c r="OR2" t="s">
+        <v>525</v>
+      </c>
+      <c r="OS2" t="s">
+        <v>525</v>
+      </c>
+      <c r="OT2" t="s">
+        <v>525</v>
+      </c>
+      <c r="OU2" t="s">
+        <v>525</v>
+      </c>
+      <c r="OV2" t="s">
+        <v>525</v>
+      </c>
+      <c r="OW2" t="s">
+        <v>525</v>
+      </c>
+      <c r="OX2" t="s">
+        <v>525</v>
+      </c>
+      <c r="OY2" t="s">
+        <v>525</v>
+      </c>
+      <c r="OZ2" t="s">
+        <v>525</v>
+      </c>
+      <c r="PA2" t="s">
+        <v>534</v>
+      </c>
+      <c r="PB2" t="s">
+        <v>525</v>
+      </c>
+      <c r="PC2" t="s">
+        <v>525</v>
+      </c>
+      <c r="PD2" t="s">
+        <v>525</v>
+      </c>
+      <c r="PE2" t="s">
+        <v>535</v>
+      </c>
+      <c r="PF2" t="s">
+        <v>525</v>
+      </c>
+      <c r="PG2" t="s">
+        <v>536</v>
+      </c>
+      <c r="PH2" t="s">
+        <v>525</v>
+      </c>
+      <c r="PI2" t="s">
+        <v>537</v>
+      </c>
+      <c r="PJ2" t="s">
+        <v>525</v>
+      </c>
+      <c r="PK2" t="s">
+        <v>538</v>
+      </c>
+      <c r="PL2" t="s">
+        <v>525</v>
+      </c>
+      <c r="PM2" t="s">
+        <v>525</v>
+      </c>
+      <c r="PN2" t="s">
+        <v>525</v>
+      </c>
+      <c r="PO2" t="s">
+        <v>525</v>
+      </c>
+      <c r="PP2" t="s">
+        <v>525</v>
+      </c>
+      <c r="PQ2" t="s">
+        <v>539</v>
+      </c>
+      <c r="PR2" t="s">
+        <v>540</v>
+      </c>
+      <c r="PS2" t="s">
+        <v>541</v>
+      </c>
+      <c r="PT2" t="s">
+        <v>542</v>
+      </c>
+      <c r="PU2" t="s">
+        <v>543</v>
+      </c>
+      <c r="PV2" t="s">
+        <v>544</v>
+      </c>
+      <c r="PW2" t="s">
+        <v>545</v>
+      </c>
+      <c r="PX2" t="s">
+        <v>546</v>
+      </c>
+      <c r="PY2" t="s">
+        <v>547</v>
+      </c>
+      <c r="PZ2" t="s">
+        <v>548</v>
+      </c>
+      <c r="QA2" t="s">
+        <v>549</v>
+      </c>
+      <c r="QB2" t="s">
+        <v>550</v>
+      </c>
+      <c r="QC2" t="s">
+        <v>551</v>
+      </c>
+      <c r="QD2" t="s">
+        <v>552</v>
+      </c>
+      <c r="QE2" t="s">
+        <v>553</v>
+      </c>
+      <c r="QF2" t="s">
+        <v>554</v>
+      </c>
+      <c r="QG2" t="s">
+        <v>555</v>
+      </c>
+      <c r="QH2" t="s">
+        <v>556</v>
+      </c>
+      <c r="QI2" t="s">
+        <v>557</v>
+      </c>
+      <c r="QJ2" t="s">
+        <v>558</v>
+      </c>
+      <c r="QK2" t="s">
+        <v>559</v>
+      </c>
+      <c r="QL2" t="s">
+        <v>560</v>
+      </c>
+      <c r="QM2" t="s">
+        <v>561</v>
+      </c>
+      <c r="QN2" t="s">
+        <v>562</v>
+      </c>
+      <c r="QO2" t="s">
+        <v>563</v>
+      </c>
+      <c r="QP2" t="s">
+        <v>564</v>
+      </c>
+      <c r="QQ2" t="s">
+        <v>565</v>
+      </c>
+      <c r="QR2" t="s">
+        <v>566</v>
+      </c>
+      <c r="QS2" t="s">
+        <v>567</v>
+      </c>
+      <c r="QT2" t="s">
+        <v>568</v>
+      </c>
+      <c r="QU2" t="s">
+        <v>569</v>
+      </c>
+      <c r="QV2" t="s">
+        <v>570</v>
+      </c>
+      <c r="QW2" t="s">
+        <v>571</v>
+      </c>
+      <c r="QX2" t="s">
+        <v>572</v>
+      </c>
+      <c r="QY2" t="s">
+        <v>573</v>
+      </c>
+      <c r="QZ2" t="s">
+        <v>574</v>
+      </c>
+      <c r="RA2" t="s">
+        <v>575</v>
+      </c>
+      <c r="RB2" t="s">
+        <v>576</v>
+      </c>
+      <c r="RC2" t="s">
+        <v>577</v>
+      </c>
+      <c r="RD2" t="s">
+        <v>578</v>
+      </c>
+      <c r="RE2" t="s">
+        <v>579</v>
+      </c>
+      <c r="RF2" t="s">
+        <v>580</v>
+      </c>
+      <c r="RG2" t="s">
+        <v>581</v>
+      </c>
+      <c r="RH2" t="s">
+        <v>582</v>
+      </c>
+      <c r="RI2" t="s">
+        <v>583</v>
+      </c>
+      <c r="RJ2" t="s">
+        <v>584</v>
+      </c>
+      <c r="RK2" t="s">
+        <v>585</v>
+      </c>
+      <c r="RL2" t="s">
+        <v>586</v>
+      </c>
+      <c r="RM2" t="s">
+        <v>587</v>
+      </c>
+      <c r="RN2" t="s">
+        <v>588</v>
+      </c>
+      <c r="RO2" t="s">
+        <v>589</v>
+      </c>
+      <c r="RP2" t="s">
+        <v>590</v>
+      </c>
+      <c r="RQ2" t="s">
+        <v>591</v>
+      </c>
+      <c r="RR2" t="s">
+        <v>592</v>
+      </c>
+      <c r="RS2" t="s">
+        <v>593</v>
+      </c>
+      <c r="RT2" t="s">
+        <v>594</v>
+      </c>
+      <c r="RU2" t="s">
+        <v>595</v>
+      </c>
+      <c r="RV2" t="s">
+        <v>596</v>
+      </c>
+      <c r="RW2" t="s">
+        <v>597</v>
+      </c>
+      <c r="RX2" t="s">
+        <v>598</v>
+      </c>
+      <c r="RY2" t="s">
+        <v>599</v>
+      </c>
+      <c r="RZ2" t="s">
+        <v>600</v>
+      </c>
+      <c r="SA2" t="s">
+        <v>601</v>
+      </c>
+      <c r="SB2" t="s">
+        <v>602</v>
+      </c>
+      <c r="SC2" t="s">
+        <v>603</v>
+      </c>
+      <c r="SD2" t="s">
+        <v>604</v>
+      </c>
+      <c r="SE2" t="s">
+        <v>605</v>
+      </c>
+      <c r="SF2" t="s">
+        <v>606</v>
+      </c>
+      <c r="SG2" t="s">
+        <v>607</v>
+      </c>
+      <c r="SH2" t="s">
+        <v>608</v>
+      </c>
+      <c r="SI2" t="s">
+        <v>609</v>
+      </c>
+      <c r="SJ2" t="s">
+        <v>610</v>
+      </c>
+      <c r="SK2" t="s">
+        <v>611</v>
+      </c>
+      <c r="SL2" t="s">
+        <v>525</v>
+      </c>
+      <c r="SM2" t="s">
+        <v>525</v>
+      </c>
+      <c r="SN2" t="s">
+        <v>525</v>
+      </c>
+      <c r="SO2" t="s">
+        <v>525</v>
+      </c>
+      <c r="SP2" t="s">
+        <v>525</v>
+      </c>
+      <c r="SQ2" t="s">
+        <v>525</v>
+      </c>
+      <c r="SR2" t="s">
+        <v>525</v>
+      </c>
+      <c r="SS2" t="s">
+        <v>525</v>
+      </c>
+      <c r="ST2" t="s">
+        <v>525</v>
+      </c>
+      <c r="SU2" t="s">
+        <v>525</v>
+      </c>
+      <c r="SV2" t="s">
+        <v>525</v>
+      </c>
+      <c r="SW2" t="s">
+        <v>525</v>
+      </c>
+      <c r="SX2" t="s">
+        <v>525</v>
+      </c>
+      <c r="SY2" t="s">
+        <v>525</v>
+      </c>
+      <c r="SZ2" t="s">
+        <v>525</v>
+      </c>
+      <c r="TA2" t="s">
+        <v>525</v>
+      </c>
+      <c r="TB2" t="s">
+        <v>525</v>
+      </c>
+      <c r="TC2" t="s">
+        <v>525</v>
+      </c>
+      <c r="TD2" t="s">
+        <v>525</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -3984,68 +5117,1761 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>528</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>529</v>
+        <v>612</v>
       </c>
       <c r="C1" t="s">
-        <v>530</v>
+        <v>613</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>614</v>
+      </c>
+      <c r="F1" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>531</v>
-      </c>
-      <c r="B2" t="s">
-        <v>536</v>
-      </c>
-      <c r="C2" t="s">
-        <v>537</v>
+        <v>526</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1946.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>528</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1845.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>11.715254</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>532</v>
-      </c>
-      <c r="B3" t="s">
-        <v>527</v>
-      </c>
-      <c r="C3" t="s">
-        <v>538</v>
+        <v>526</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1946.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>528</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1850.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>9.437288</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>533</v>
-      </c>
-      <c r="B4" t="s">
-        <v>527</v>
-      </c>
-      <c r="C4" t="s">
-        <v>539</v>
+        <v>526</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1946.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>528</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1855.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>16.8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>534</v>
-      </c>
-      <c r="B5" t="s">
-        <v>527</v>
-      </c>
-      <c r="C5" t="s">
-        <v>540</v>
+        <v>526</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1946.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>528</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1860.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>28.271186</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>535</v>
+        <v>526</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1946.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>528</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1889.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>66.561845</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>526</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1946.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>528</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1908.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>191.582329</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>526</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1946.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>528</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1912.0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>221.7143</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>526</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1946.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>528</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1914.0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>207.040053</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>526</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1946.0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>528</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1916.0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>116.356792</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>526</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1946.0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>528</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1918.0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>39.144411</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>526</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1946.0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>528</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1924.0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>174.337871</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>526</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1946.0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>528</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1925.0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>210.690946</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>526</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1946.0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>528</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1926.0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>253.237354</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>526</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1946.0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>528</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1927.0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>256.985962</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>526</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1946.0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>528</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1928.0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>198.203835</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>526</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1946.0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>528</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1929.0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>221.549583</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>526</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1946.0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>528</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1930.0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>249.174457</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>526</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1946.0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>528</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1931.0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>272.050063</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>526</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1946.0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>528</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1932.0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>253.903018</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>526</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1946.0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>528</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1933.0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>239.517774</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>526</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1946.0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>528</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1934.0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>247.369736</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>526</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1946.0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>528</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1935.0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>237.316752</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>526</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1946.0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>528</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1936.0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>239.388268</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>526</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1946.0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>528</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1937.0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>203.924857</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>526</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1946.0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>528</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>215.119216</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>526</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1946.0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>528</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1939.0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>232.422314</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>526</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1946.0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>528</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1940.0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>237.95678</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>526</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1946.0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>528</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1941.0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>205.406116</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>526</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1946.0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>528</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1942.0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>94.00328</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>526</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1946.0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>528</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1943.0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>86.95579</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>526</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1946.0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="D32" t="s">
+        <v>528</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1944.0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>97.496137</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>526</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1946.0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="D33" t="s">
+        <v>528</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1945.0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>109.982029</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>526</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1946.0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="D34" t="s">
+        <v>528</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1946.0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>137.034735</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>526</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1946.0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="D35" t="s">
+        <v>528</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1947.0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>175.853891</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>526</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1946.0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="D36" t="s">
+        <v>528</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1948.0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>230.604966</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>526</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1946.0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="D37" t="s">
+        <v>528</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1949.0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>237.32313</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>526</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1946.0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="D38" t="s">
+        <v>528</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1950.0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>240.267385</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>526</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1946.0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="D39" t="s">
+        <v>528</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1951.0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>228.282309</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>526</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1946.0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="D40" t="s">
+        <v>528</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1952.0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>232.484815</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>526</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1946.0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="D41" t="s">
+        <v>528</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1953.0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>217.419184</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>526</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1946.0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="D42" t="s">
+        <v>528</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1954.0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>261.493743</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>526</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1946.0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="D43" t="s">
+        <v>528</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1955.0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>280.666848</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>526</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1946.0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="D44" t="s">
+        <v>528</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1956.0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>299.940042</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>526</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1946.0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="D45" t="s">
+        <v>528</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1957.0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>291.140306</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>526</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1946.0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="D46" t="s">
+        <v>528</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1958.0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>309.920817</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>526</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1946.0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="D47" t="s">
+        <v>528</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1959.0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>330.762381</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>526</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1946.0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="D48" t="s">
+        <v>528</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1960.0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>359.039956</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>526</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1946.0</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="D49" t="s">
+        <v>528</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1961.0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>343.065868</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>526</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1946.0</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="D50" t="s">
+        <v>528</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1962.0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>360.673672</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>526</v>
+      </c>
+      <c r="B51" t="n">
+        <v>1946.0</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="D51" t="s">
+        <v>528</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1963.0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>348.123868</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>526</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1946.0</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="D52" t="s">
+        <v>528</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1964.0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>345.818595</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>526</v>
+      </c>
+      <c r="B53" t="n">
+        <v>1946.0</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="D53" t="s">
+        <v>528</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1965.0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>332.165774</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>526</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1946.0</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="D54" t="s">
+        <v>528</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1966.0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>314.792071</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>526</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1946.0</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="D55" t="s">
+        <v>528</v>
+      </c>
+      <c r="E55" t="n">
+        <v>1967.0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>316.142997</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>526</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1946.0</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="D56" t="s">
+        <v>528</v>
+      </c>
+      <c r="E56" t="n">
+        <v>1968.0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>319.767249</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>526</v>
+      </c>
+      <c r="B57" t="n">
+        <v>1946.0</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="D57" t="s">
+        <v>528</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1969.0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>312.025774</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>526</v>
+      </c>
+      <c r="B58" t="n">
+        <v>1946.0</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="D58" t="s">
+        <v>528</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1970.0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>325.386069</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>526</v>
+      </c>
+      <c r="B59" t="n">
+        <v>1946.0</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="D59" t="s">
+        <v>528</v>
+      </c>
+      <c r="E59" t="n">
+        <v>1971.0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>349.0882</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>526</v>
+      </c>
+      <c r="B60" t="n">
+        <v>1946.0</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="D60" t="s">
+        <v>528</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1972.0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>325.680957</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>526</v>
+      </c>
+      <c r="B61" t="n">
+        <v>1946.0</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="D61" t="s">
+        <v>528</v>
+      </c>
+      <c r="E61" t="n">
+        <v>1973.0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>321.153481</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>526</v>
+      </c>
+      <c r="B62" t="n">
+        <v>1946.0</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="D62" t="s">
+        <v>528</v>
+      </c>
+      <c r="E62" t="n">
+        <v>1974.0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>344.273452</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>526</v>
+      </c>
+      <c r="B63" t="n">
+        <v>1946.0</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="D63" t="s">
+        <v>528</v>
+      </c>
+      <c r="E63" t="n">
+        <v>1975.0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>309.199298</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>526</v>
+      </c>
+      <c r="B64" t="n">
+        <v>1946.0</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="D64" t="s">
+        <v>528</v>
+      </c>
+      <c r="E64" t="n">
+        <v>1976.0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>327.604741</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>526</v>
+      </c>
+      <c r="B65" t="n">
+        <v>1946.0</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="D65" t="s">
+        <v>528</v>
+      </c>
+      <c r="E65" t="n">
+        <v>1977.0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>329.424137</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>526</v>
+      </c>
+      <c r="B66" t="n">
+        <v>1946.0</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="D66" t="s">
+        <v>528</v>
+      </c>
+      <c r="E66" t="n">
+        <v>1978.0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>323.972969</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>526</v>
+      </c>
+      <c r="B67" t="n">
+        <v>1946.0</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="D67" t="s">
+        <v>528</v>
+      </c>
+      <c r="E67" t="n">
+        <v>1979.0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>305.440048</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>526</v>
+      </c>
+      <c r="B68" t="n">
+        <v>1946.0</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="D68" t="s">
+        <v>528</v>
+      </c>
+      <c r="E68" t="n">
+        <v>1980.0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>303.377134</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>526</v>
+      </c>
+      <c r="B69" t="n">
+        <v>1946.0</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="D69" t="s">
+        <v>528</v>
+      </c>
+      <c r="E69" t="n">
+        <v>1981.0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>309.58513</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>526</v>
+      </c>
+      <c r="B70" t="n">
+        <v>1946.0</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="D70" t="s">
+        <v>528</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1982.0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>298.361654</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>526</v>
+      </c>
+      <c r="B71" t="n">
+        <v>1946.0</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="D71" t="s">
+        <v>528</v>
+      </c>
+      <c r="E71" t="n">
+        <v>1983.0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>302.837836</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>526</v>
+      </c>
+      <c r="B72" t="n">
+        <v>1946.0</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="D72" t="s">
+        <v>528</v>
+      </c>
+      <c r="E72" t="n">
+        <v>1984.0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>300.682805</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>526</v>
+      </c>
+      <c r="B73" t="n">
+        <v>1946.0</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="D73" t="s">
+        <v>528</v>
+      </c>
+      <c r="E73" t="n">
+        <v>1985.0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>302.406411</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>526</v>
+      </c>
+      <c r="B74" t="n">
+        <v>1946.0</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="D74" t="s">
+        <v>528</v>
+      </c>
+      <c r="E74" t="n">
+        <v>1986.0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>297.717261</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>526</v>
+      </c>
+      <c r="B75" t="n">
+        <v>1946.0</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="D75" t="s">
+        <v>528</v>
+      </c>
+      <c r="E75" t="n">
+        <v>1987.0</v>
+      </c>
+      <c r="F75" t="n">
+        <v>293.617535</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>526</v>
+      </c>
+      <c r="B76" t="n">
+        <v>1946.0</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="D76" t="s">
+        <v>528</v>
+      </c>
+      <c r="E76" t="n">
+        <v>1988.0</v>
+      </c>
+      <c r="F76" t="n">
+        <v>286.295297</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>526</v>
+      </c>
+      <c r="B77" t="n">
+        <v>1946.0</v>
+      </c>
+      <c r="C77" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="D77" t="s">
+        <v>528</v>
+      </c>
+      <c r="E77" t="n">
+        <v>1989.0</v>
+      </c>
+      <c r="F77" t="n">
+        <v>267.084609</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>526</v>
+      </c>
+      <c r="B78" t="n">
+        <v>1946.0</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="D78" t="s">
+        <v>528</v>
+      </c>
+      <c r="E78" t="n">
+        <v>1990.0</v>
+      </c>
+      <c r="F78" t="n">
+        <v>237.696383</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>526</v>
+      </c>
+      <c r="B79" t="n">
+        <v>1946.0</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="D79" t="s">
+        <v>528</v>
+      </c>
+      <c r="E79" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="F79" t="n">
+        <v>117.434276</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>526</v>
+      </c>
+      <c r="B80" t="n">
+        <v>1946.0</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="D80" t="s">
+        <v>528</v>
+      </c>
+      <c r="E80" t="n">
+        <v>1992.0</v>
+      </c>
+      <c r="F80" t="n">
+        <v>98.69734</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>526</v>
+      </c>
+      <c r="B81" t="n">
+        <v>1946.0</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="D81" t="s">
+        <v>528</v>
+      </c>
+      <c r="E81" t="n">
+        <v>1993.0</v>
+      </c>
+      <c r="F81" t="n">
+        <v>99.642091</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>526</v>
+      </c>
+      <c r="B82" t="n">
+        <v>1946.0</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="D82" t="s">
+        <v>528</v>
+      </c>
+      <c r="E82" t="n">
+        <v>1994.0</v>
+      </c>
+      <c r="F82" t="n">
+        <v>104.414488</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>526</v>
+      </c>
+      <c r="B83" t="n">
+        <v>1946.0</v>
+      </c>
+      <c r="C83" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="D83" t="s">
+        <v>528</v>
+      </c>
+      <c r="E83" t="n">
+        <v>1995.0</v>
+      </c>
+      <c r="F83" t="n">
+        <v>115.60065</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>526</v>
+      </c>
+      <c r="B84" t="n">
+        <v>1946.0</v>
+      </c>
+      <c r="C84" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="D84" t="s">
+        <v>528</v>
+      </c>
+      <c r="E84" t="n">
+        <v>1996.0</v>
+      </c>
+      <c r="F84" t="n">
+        <v>124.68637</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>616</v>
+      </c>
+      <c r="B1" t="s">
+        <v>617</v>
+      </c>
+      <c r="C1" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>619</v>
+      </c>
+      <c r="B2" t="s">
+        <v>624</v>
+      </c>
+      <c r="C2" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>620</v>
+      </c>
+      <c r="B3" t="s">
+        <v>528</v>
+      </c>
+      <c r="C3" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>621</v>
+      </c>
+      <c r="B4" t="s">
+        <v>528</v>
+      </c>
+      <c r="C4" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>622</v>
+      </c>
+      <c r="B5" t="s">
+        <v>528</v>
+      </c>
+      <c r="C5" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>623</v>
       </c>
       <c r="B6" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C6" t="s">
-        <v>541</v>
+        <v>629</v>
       </c>
     </row>
   </sheetData>

--- a/www/docs/USSR_1940_1991_all_data.xlsx
+++ b/www/docs/USSR_1940_1991_all_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="546">
   <si>
     <t>Webmapper code</t>
   </si>
@@ -1591,9 +1591,6 @@
     <t>cshapes/1557</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>USSR</t>
   </si>
   <si>
@@ -1603,255 +1600,6 @@
     <t>Book Titles per Capita</t>
   </si>
   <si>
-    <t>11.7152542372881</t>
-  </si>
-  <si>
-    <t>9.43728813559322</t>
-  </si>
-  <si>
-    <t>16.8</t>
-  </si>
-  <si>
-    <t>28.271186440678</t>
-  </si>
-  <si>
-    <t>66.5618448637317</t>
-  </si>
-  <si>
-    <t>191.582329317269</t>
-  </si>
-  <si>
-    <t>221.714300348289</t>
-  </si>
-  <si>
-    <t>207.040053267773</t>
-  </si>
-  <si>
-    <t>116.356791641057</t>
-  </si>
-  <si>
-    <t>39.1444113138474</t>
-  </si>
-  <si>
-    <t>174.3378707241</t>
-  </si>
-  <si>
-    <t>210.690945893582</t>
-  </si>
-  <si>
-    <t>253.237353945199</t>
-  </si>
-  <si>
-    <t>256.985961701227</t>
-  </si>
-  <si>
-    <t>198.203835171263</t>
-  </si>
-  <si>
-    <t>221.549583056191</t>
-  </si>
-  <si>
-    <t>249.174456683383</t>
-  </si>
-  <si>
-    <t>272.050063213109</t>
-  </si>
-  <si>
-    <t>253.903017629704</t>
-  </si>
-  <si>
-    <t>239.517774463877</t>
-  </si>
-  <si>
-    <t>247.369735899448</t>
-  </si>
-  <si>
-    <t>237.316751949688</t>
-  </si>
-  <si>
-    <t>239.388268266822</t>
-  </si>
-  <si>
-    <t>203.924856901419</t>
-  </si>
-  <si>
-    <t>215.119216054833</t>
-  </si>
-  <si>
-    <t>232.422314004076</t>
-  </si>
-  <si>
-    <t>237.956780444241</t>
-  </si>
-  <si>
-    <t>205.406115994651</t>
-  </si>
-  <si>
-    <t>94.0032801520586</t>
-  </si>
-  <si>
-    <t>86.9557901059121</t>
-  </si>
-  <si>
-    <t>97.4961371925958</t>
-  </si>
-  <si>
-    <t>109.982028790722</t>
-  </si>
-  <si>
-    <t>137.034735089242</t>
-  </si>
-  <si>
-    <t>175.853891157851</t>
-  </si>
-  <si>
-    <t>230.604966095788</t>
-  </si>
-  <si>
-    <t>237.323130009485</t>
-  </si>
-  <si>
-    <t>240.267385348488</t>
-  </si>
-  <si>
-    <t>228.282309403276</t>
-  </si>
-  <si>
-    <t>232.484814513391</t>
-  </si>
-  <si>
-    <t>217.419183889772</t>
-  </si>
-  <si>
-    <t>261.493743020258</t>
-  </si>
-  <si>
-    <t>280.666847856744</t>
-  </si>
-  <si>
-    <t>299.940042222368</t>
-  </si>
-  <si>
-    <t>291.140306135082</t>
-  </si>
-  <si>
-    <t>309.920816573004</t>
-  </si>
-  <si>
-    <t>330.762381142445</t>
-  </si>
-  <si>
-    <t>359.039955838236</t>
-  </si>
-  <si>
-    <t>343.065868011514</t>
-  </si>
-  <si>
-    <t>360.673672246118</t>
-  </si>
-  <si>
-    <t>348.123867773934</t>
-  </si>
-  <si>
-    <t>345.818595218704</t>
-  </si>
-  <si>
-    <t>332.165774339337</t>
-  </si>
-  <si>
-    <t>314.79207086926</t>
-  </si>
-  <si>
-    <t>316.142996564288</t>
-  </si>
-  <si>
-    <t>319.767249069948</t>
-  </si>
-  <si>
-    <t>312.02577427995</t>
-  </si>
-  <si>
-    <t>325.386068968625</t>
-  </si>
-  <si>
-    <t>349.088199769382</t>
-  </si>
-  <si>
-    <t>325.680956813658</t>
-  </si>
-  <si>
-    <t>321.153480656426</t>
-  </si>
-  <si>
-    <t>344.273452101321</t>
-  </si>
-  <si>
-    <t>309.199298130912</t>
-  </si>
-  <si>
-    <t>327.604741383762</t>
-  </si>
-  <si>
-    <t>329.424137328376</t>
-  </si>
-  <si>
-    <t>323.972969228304</t>
-  </si>
-  <si>
-    <t>305.440048399053</t>
-  </si>
-  <si>
-    <t>303.377133967982</t>
-  </si>
-  <si>
-    <t>309.585130004887</t>
-  </si>
-  <si>
-    <t>298.361654489452</t>
-  </si>
-  <si>
-    <t>302.83783572001</t>
-  </si>
-  <si>
-    <t>300.68280497036</t>
-  </si>
-  <si>
-    <t>302.406410566679</t>
-  </si>
-  <si>
-    <t>297.71726113263</t>
-  </si>
-  <si>
-    <t>293.617534516154</t>
-  </si>
-  <si>
-    <t>286.295296757706</t>
-  </si>
-  <si>
-    <t>267.084608881311</t>
-  </si>
-  <si>
-    <t>237.696383310669</t>
-  </si>
-  <si>
-    <t>117.43427607087</t>
-  </si>
-  <si>
-    <t>98.6973401520515</t>
-  </si>
-  <si>
-    <t>99.6420913220162</t>
-  </si>
-  <si>
-    <t>104.414487874046</t>
-  </si>
-  <si>
-    <t>115.600649584677</t>
-  </si>
-  <si>
-    <t>124.686370097513</t>
-  </si>
-  <si>
     <t>Borders Start Year</t>
   </si>
   <si>
@@ -1891,19 +1639,19 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/data/DataAtHistoricalBorders.xlsx</t>
+    <t>https://www.clio-infra.eu/data/USSR_1940_1991_all_data.xlsx</t>
   </si>
   <si>
     <t>Fink-Jensen, Jonathan (2015). Book Titles per Capita. http://hdl.handle.net/10622/AOQMAZ, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_AOQMAZ.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_AOQMAZ.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_AOQMAZ.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_AOQMAZ.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_AOQMAZ.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_AOQMAZ.bib</t>
   </si>
 </sst>
 </file>
@@ -3532,1575 +3280,707 @@
       <c r="A2" t="s">
         <v>524</v>
       </c>
-      <c r="B2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" t="s">
-        <v>525</v>
-      </c>
+      <c r="B2" t="n">
+        <v>1557.0</v>
+      </c>
+      <c r="C2"/>
       <c r="D2" t="s">
+        <v>525</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1946.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="G2" t="s">
         <v>526</v>
       </c>
-      <c r="E2" t="s">
-        <v>454</v>
-      </c>
-      <c r="F2" t="s">
-        <v>499</v>
-      </c>
-      <c r="G2" t="s">
-        <v>527</v>
-      </c>
       <c r="H2" t="s">
-        <v>528</v>
-      </c>
-      <c r="I2" t="s">
-        <v>525</v>
-      </c>
-      <c r="J2" t="s">
-        <v>525</v>
-      </c>
-      <c r="K2" t="s">
-        <v>525</v>
-      </c>
-      <c r="L2" t="s">
-        <v>525</v>
-      </c>
-      <c r="M2" t="s">
-        <v>525</v>
-      </c>
-      <c r="N2" t="s">
-        <v>525</v>
-      </c>
-      <c r="O2" t="s">
-        <v>525</v>
-      </c>
-      <c r="P2" t="s">
-        <v>525</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>525</v>
-      </c>
-      <c r="R2" t="s">
-        <v>525</v>
-      </c>
-      <c r="S2" t="s">
-        <v>525</v>
-      </c>
-      <c r="T2" t="s">
-        <v>525</v>
-      </c>
-      <c r="U2" t="s">
-        <v>525</v>
-      </c>
-      <c r="V2" t="s">
-        <v>525</v>
-      </c>
-      <c r="W2" t="s">
-        <v>525</v>
-      </c>
-      <c r="X2" t="s">
-        <v>525</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>525</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>525</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>525</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>525</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>525</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>525</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>525</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>525</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>525</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>525</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>525</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>525</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>525</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>525</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>525</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>525</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>525</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>525</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>525</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>525</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>525</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>525</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>525</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>525</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>525</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>525</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>525</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>525</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>525</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>525</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>525</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>525</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>525</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>525</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>525</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>525</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>525</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>525</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>525</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>525</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>525</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>525</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>525</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>525</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>525</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>525</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>525</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>525</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>525</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>525</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>525</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>525</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>525</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>525</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>525</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>525</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>525</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>525</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>525</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>525</v>
-      </c>
-      <c r="CG2" t="s">
-        <v>525</v>
-      </c>
-      <c r="CH2" t="s">
-        <v>525</v>
-      </c>
-      <c r="CI2" t="s">
-        <v>525</v>
-      </c>
-      <c r="CJ2" t="s">
-        <v>525</v>
-      </c>
-      <c r="CK2" t="s">
-        <v>525</v>
-      </c>
-      <c r="CL2" t="s">
-        <v>525</v>
-      </c>
-      <c r="CM2" t="s">
-        <v>525</v>
-      </c>
-      <c r="CN2" t="s">
-        <v>525</v>
-      </c>
-      <c r="CO2" t="s">
-        <v>525</v>
-      </c>
-      <c r="CP2" t="s">
-        <v>525</v>
-      </c>
-      <c r="CQ2" t="s">
-        <v>525</v>
-      </c>
-      <c r="CR2" t="s">
-        <v>525</v>
-      </c>
-      <c r="CS2" t="s">
-        <v>525</v>
-      </c>
-      <c r="CT2" t="s">
-        <v>525</v>
-      </c>
-      <c r="CU2" t="s">
-        <v>525</v>
-      </c>
-      <c r="CV2" t="s">
-        <v>525</v>
-      </c>
-      <c r="CW2" t="s">
-        <v>525</v>
-      </c>
-      <c r="CX2" t="s">
-        <v>525</v>
-      </c>
-      <c r="CY2" t="s">
-        <v>525</v>
-      </c>
-      <c r="CZ2" t="s">
-        <v>525</v>
-      </c>
-      <c r="DA2" t="s">
-        <v>525</v>
-      </c>
-      <c r="DB2" t="s">
-        <v>525</v>
-      </c>
-      <c r="DC2" t="s">
-        <v>525</v>
-      </c>
-      <c r="DD2" t="s">
-        <v>525</v>
-      </c>
-      <c r="DE2" t="s">
-        <v>525</v>
-      </c>
-      <c r="DF2" t="s">
-        <v>525</v>
-      </c>
-      <c r="DG2" t="s">
-        <v>525</v>
-      </c>
-      <c r="DH2" t="s">
-        <v>525</v>
-      </c>
-      <c r="DI2" t="s">
-        <v>525</v>
-      </c>
-      <c r="DJ2" t="s">
-        <v>525</v>
-      </c>
-      <c r="DK2" t="s">
-        <v>525</v>
-      </c>
-      <c r="DL2" t="s">
-        <v>525</v>
-      </c>
-      <c r="DM2" t="s">
-        <v>525</v>
-      </c>
-      <c r="DN2" t="s">
-        <v>525</v>
-      </c>
-      <c r="DO2" t="s">
-        <v>525</v>
-      </c>
-      <c r="DP2" t="s">
-        <v>525</v>
-      </c>
-      <c r="DQ2" t="s">
-        <v>525</v>
-      </c>
-      <c r="DR2" t="s">
-        <v>525</v>
-      </c>
-      <c r="DS2" t="s">
-        <v>525</v>
-      </c>
-      <c r="DT2" t="s">
-        <v>525</v>
-      </c>
-      <c r="DU2" t="s">
-        <v>525</v>
-      </c>
-      <c r="DV2" t="s">
-        <v>525</v>
-      </c>
-      <c r="DW2" t="s">
-        <v>525</v>
-      </c>
-      <c r="DX2" t="s">
-        <v>525</v>
-      </c>
-      <c r="DY2" t="s">
-        <v>525</v>
-      </c>
-      <c r="DZ2" t="s">
-        <v>525</v>
-      </c>
-      <c r="EA2" t="s">
-        <v>525</v>
-      </c>
-      <c r="EB2" t="s">
-        <v>525</v>
-      </c>
-      <c r="EC2" t="s">
-        <v>525</v>
-      </c>
-      <c r="ED2" t="s">
-        <v>525</v>
-      </c>
-      <c r="EE2" t="s">
-        <v>525</v>
-      </c>
-      <c r="EF2" t="s">
-        <v>525</v>
-      </c>
-      <c r="EG2" t="s">
-        <v>525</v>
-      </c>
-      <c r="EH2" t="s">
-        <v>525</v>
-      </c>
-      <c r="EI2" t="s">
-        <v>525</v>
-      </c>
-      <c r="EJ2" t="s">
-        <v>525</v>
-      </c>
-      <c r="EK2" t="s">
-        <v>525</v>
-      </c>
-      <c r="EL2" t="s">
-        <v>525</v>
-      </c>
-      <c r="EM2" t="s">
-        <v>525</v>
-      </c>
-      <c r="EN2" t="s">
-        <v>525</v>
-      </c>
-      <c r="EO2" t="s">
-        <v>525</v>
-      </c>
-      <c r="EP2" t="s">
-        <v>525</v>
-      </c>
-      <c r="EQ2" t="s">
-        <v>525</v>
-      </c>
-      <c r="ER2" t="s">
-        <v>525</v>
-      </c>
-      <c r="ES2" t="s">
-        <v>525</v>
-      </c>
-      <c r="ET2" t="s">
-        <v>525</v>
-      </c>
-      <c r="EU2" t="s">
-        <v>525</v>
-      </c>
-      <c r="EV2" t="s">
-        <v>525</v>
-      </c>
-      <c r="EW2" t="s">
-        <v>525</v>
-      </c>
-      <c r="EX2" t="s">
-        <v>525</v>
-      </c>
-      <c r="EY2" t="s">
-        <v>525</v>
-      </c>
-      <c r="EZ2" t="s">
-        <v>525</v>
-      </c>
-      <c r="FA2" t="s">
-        <v>525</v>
-      </c>
-      <c r="FB2" t="s">
-        <v>525</v>
-      </c>
-      <c r="FC2" t="s">
-        <v>525</v>
-      </c>
-      <c r="FD2" t="s">
-        <v>525</v>
-      </c>
-      <c r="FE2" t="s">
-        <v>525</v>
-      </c>
-      <c r="FF2" t="s">
-        <v>525</v>
-      </c>
-      <c r="FG2" t="s">
-        <v>525</v>
-      </c>
-      <c r="FH2" t="s">
-        <v>525</v>
-      </c>
-      <c r="FI2" t="s">
-        <v>525</v>
-      </c>
-      <c r="FJ2" t="s">
-        <v>525</v>
-      </c>
-      <c r="FK2" t="s">
-        <v>525</v>
-      </c>
-      <c r="FL2" t="s">
-        <v>525</v>
-      </c>
-      <c r="FM2" t="s">
-        <v>525</v>
-      </c>
-      <c r="FN2" t="s">
-        <v>525</v>
-      </c>
-      <c r="FO2" t="s">
-        <v>525</v>
-      </c>
-      <c r="FP2" t="s">
-        <v>525</v>
-      </c>
-      <c r="FQ2" t="s">
-        <v>525</v>
-      </c>
-      <c r="FR2" t="s">
-        <v>525</v>
-      </c>
-      <c r="FS2" t="s">
-        <v>525</v>
-      </c>
-      <c r="FT2" t="s">
-        <v>525</v>
-      </c>
-      <c r="FU2" t="s">
-        <v>525</v>
-      </c>
-      <c r="FV2" t="s">
-        <v>525</v>
-      </c>
-      <c r="FW2" t="s">
-        <v>525</v>
-      </c>
-      <c r="FX2" t="s">
-        <v>525</v>
-      </c>
-      <c r="FY2" t="s">
-        <v>525</v>
-      </c>
-      <c r="FZ2" t="s">
-        <v>525</v>
-      </c>
-      <c r="GA2" t="s">
-        <v>525</v>
-      </c>
-      <c r="GB2" t="s">
-        <v>525</v>
-      </c>
-      <c r="GC2" t="s">
-        <v>525</v>
-      </c>
-      <c r="GD2" t="s">
-        <v>525</v>
-      </c>
-      <c r="GE2" t="s">
-        <v>525</v>
-      </c>
-      <c r="GF2" t="s">
-        <v>525</v>
-      </c>
-      <c r="GG2" t="s">
-        <v>525</v>
-      </c>
-      <c r="GH2" t="s">
-        <v>525</v>
-      </c>
-      <c r="GI2" t="s">
-        <v>525</v>
-      </c>
-      <c r="GJ2" t="s">
-        <v>525</v>
-      </c>
-      <c r="GK2" t="s">
-        <v>525</v>
-      </c>
-      <c r="GL2" t="s">
-        <v>525</v>
-      </c>
-      <c r="GM2" t="s">
-        <v>525</v>
-      </c>
-      <c r="GN2" t="s">
-        <v>525</v>
-      </c>
-      <c r="GO2" t="s">
-        <v>525</v>
-      </c>
-      <c r="GP2" t="s">
-        <v>525</v>
-      </c>
-      <c r="GQ2" t="s">
-        <v>525</v>
-      </c>
-      <c r="GR2" t="s">
-        <v>525</v>
-      </c>
-      <c r="GS2" t="s">
-        <v>525</v>
-      </c>
-      <c r="GT2" t="s">
-        <v>525</v>
-      </c>
-      <c r="GU2" t="s">
-        <v>525</v>
-      </c>
-      <c r="GV2" t="s">
-        <v>525</v>
-      </c>
-      <c r="GW2" t="s">
-        <v>525</v>
-      </c>
-      <c r="GX2" t="s">
-        <v>525</v>
-      </c>
-      <c r="GY2" t="s">
-        <v>525</v>
-      </c>
-      <c r="GZ2" t="s">
-        <v>525</v>
-      </c>
-      <c r="HA2" t="s">
-        <v>525</v>
-      </c>
-      <c r="HB2" t="s">
-        <v>525</v>
-      </c>
-      <c r="HC2" t="s">
-        <v>525</v>
-      </c>
-      <c r="HD2" t="s">
-        <v>525</v>
-      </c>
-      <c r="HE2" t="s">
-        <v>525</v>
-      </c>
-      <c r="HF2" t="s">
-        <v>525</v>
-      </c>
-      <c r="HG2" t="s">
-        <v>525</v>
-      </c>
-      <c r="HH2" t="s">
-        <v>525</v>
-      </c>
-      <c r="HI2" t="s">
-        <v>525</v>
-      </c>
-      <c r="HJ2" t="s">
-        <v>525</v>
-      </c>
-      <c r="HK2" t="s">
-        <v>525</v>
-      </c>
-      <c r="HL2" t="s">
-        <v>525</v>
-      </c>
-      <c r="HM2" t="s">
-        <v>525</v>
-      </c>
-      <c r="HN2" t="s">
-        <v>525</v>
-      </c>
-      <c r="HO2" t="s">
-        <v>525</v>
-      </c>
-      <c r="HP2" t="s">
-        <v>525</v>
-      </c>
-      <c r="HQ2" t="s">
-        <v>525</v>
-      </c>
-      <c r="HR2" t="s">
-        <v>525</v>
-      </c>
-      <c r="HS2" t="s">
-        <v>525</v>
-      </c>
-      <c r="HT2" t="s">
-        <v>525</v>
-      </c>
-      <c r="HU2" t="s">
-        <v>525</v>
-      </c>
-      <c r="HV2" t="s">
-        <v>525</v>
-      </c>
-      <c r="HW2" t="s">
-        <v>525</v>
-      </c>
-      <c r="HX2" t="s">
-        <v>525</v>
-      </c>
-      <c r="HY2" t="s">
-        <v>525</v>
-      </c>
-      <c r="HZ2" t="s">
-        <v>525</v>
-      </c>
-      <c r="IA2" t="s">
-        <v>525</v>
-      </c>
-      <c r="IB2" t="s">
-        <v>525</v>
-      </c>
-      <c r="IC2" t="s">
-        <v>525</v>
-      </c>
-      <c r="ID2" t="s">
-        <v>525</v>
-      </c>
-      <c r="IE2" t="s">
-        <v>525</v>
-      </c>
-      <c r="IF2" t="s">
-        <v>525</v>
-      </c>
-      <c r="IG2" t="s">
-        <v>525</v>
-      </c>
-      <c r="IH2" t="s">
-        <v>525</v>
-      </c>
-      <c r="II2" t="s">
-        <v>525</v>
-      </c>
-      <c r="IJ2" t="s">
-        <v>525</v>
-      </c>
-      <c r="IK2" t="s">
-        <v>525</v>
-      </c>
-      <c r="IL2" t="s">
-        <v>525</v>
-      </c>
-      <c r="IM2" t="s">
-        <v>525</v>
-      </c>
-      <c r="IN2" t="s">
-        <v>525</v>
-      </c>
-      <c r="IO2" t="s">
-        <v>525</v>
-      </c>
-      <c r="IP2" t="s">
-        <v>525</v>
-      </c>
-      <c r="IQ2" t="s">
-        <v>525</v>
-      </c>
-      <c r="IR2" t="s">
-        <v>525</v>
-      </c>
-      <c r="IS2" t="s">
-        <v>525</v>
-      </c>
-      <c r="IT2" t="s">
-        <v>525</v>
-      </c>
-      <c r="IU2" t="s">
-        <v>525</v>
-      </c>
-      <c r="IV2" t="s">
-        <v>525</v>
-      </c>
-      <c r="IW2" t="s">
-        <v>525</v>
-      </c>
-      <c r="IX2" t="s">
-        <v>525</v>
-      </c>
-      <c r="IY2" t="s">
-        <v>525</v>
-      </c>
-      <c r="IZ2" t="s">
-        <v>525</v>
-      </c>
-      <c r="JA2" t="s">
-        <v>525</v>
-      </c>
-      <c r="JB2" t="s">
-        <v>525</v>
-      </c>
-      <c r="JC2" t="s">
-        <v>525</v>
-      </c>
-      <c r="JD2" t="s">
-        <v>525</v>
-      </c>
-      <c r="JE2" t="s">
-        <v>525</v>
-      </c>
-      <c r="JF2" t="s">
-        <v>525</v>
-      </c>
-      <c r="JG2" t="s">
-        <v>525</v>
-      </c>
-      <c r="JH2" t="s">
-        <v>525</v>
-      </c>
-      <c r="JI2" t="s">
-        <v>525</v>
-      </c>
-      <c r="JJ2" t="s">
-        <v>525</v>
-      </c>
-      <c r="JK2" t="s">
-        <v>525</v>
-      </c>
-      <c r="JL2" t="s">
-        <v>525</v>
-      </c>
-      <c r="JM2" t="s">
-        <v>525</v>
-      </c>
-      <c r="JN2" t="s">
-        <v>525</v>
-      </c>
-      <c r="JO2" t="s">
-        <v>525</v>
-      </c>
-      <c r="JP2" t="s">
-        <v>525</v>
-      </c>
-      <c r="JQ2" t="s">
-        <v>525</v>
-      </c>
-      <c r="JR2" t="s">
-        <v>525</v>
-      </c>
-      <c r="JS2" t="s">
-        <v>525</v>
-      </c>
-      <c r="JT2" t="s">
-        <v>525</v>
-      </c>
-      <c r="JU2" t="s">
-        <v>525</v>
-      </c>
-      <c r="JV2" t="s">
-        <v>525</v>
-      </c>
-      <c r="JW2" t="s">
-        <v>525</v>
-      </c>
-      <c r="JX2" t="s">
-        <v>525</v>
-      </c>
-      <c r="JY2" t="s">
-        <v>525</v>
-      </c>
-      <c r="JZ2" t="s">
-        <v>525</v>
-      </c>
-      <c r="KA2" t="s">
-        <v>525</v>
-      </c>
-      <c r="KB2" t="s">
-        <v>525</v>
-      </c>
-      <c r="KC2" t="s">
-        <v>525</v>
-      </c>
-      <c r="KD2" t="s">
-        <v>525</v>
-      </c>
-      <c r="KE2" t="s">
-        <v>525</v>
-      </c>
-      <c r="KF2" t="s">
-        <v>525</v>
-      </c>
-      <c r="KG2" t="s">
-        <v>525</v>
-      </c>
-      <c r="KH2" t="s">
-        <v>525</v>
-      </c>
-      <c r="KI2" t="s">
-        <v>525</v>
-      </c>
-      <c r="KJ2" t="s">
-        <v>525</v>
-      </c>
-      <c r="KK2" t="s">
-        <v>525</v>
-      </c>
-      <c r="KL2" t="s">
-        <v>525</v>
-      </c>
-      <c r="KM2" t="s">
-        <v>525</v>
-      </c>
-      <c r="KN2" t="s">
-        <v>525</v>
-      </c>
-      <c r="KO2" t="s">
-        <v>525</v>
-      </c>
-      <c r="KP2" t="s">
-        <v>525</v>
-      </c>
-      <c r="KQ2" t="s">
-        <v>525</v>
-      </c>
-      <c r="KR2" t="s">
-        <v>525</v>
-      </c>
-      <c r="KS2" t="s">
-        <v>525</v>
-      </c>
-      <c r="KT2" t="s">
-        <v>525</v>
-      </c>
-      <c r="KU2" t="s">
-        <v>525</v>
-      </c>
-      <c r="KV2" t="s">
-        <v>525</v>
-      </c>
-      <c r="KW2" t="s">
-        <v>525</v>
-      </c>
-      <c r="KX2" t="s">
-        <v>525</v>
-      </c>
-      <c r="KY2" t="s">
-        <v>525</v>
-      </c>
-      <c r="KZ2" t="s">
-        <v>525</v>
-      </c>
-      <c r="LA2" t="s">
-        <v>525</v>
-      </c>
-      <c r="LB2" t="s">
-        <v>525</v>
-      </c>
-      <c r="LC2" t="s">
-        <v>525</v>
-      </c>
-      <c r="LD2" t="s">
-        <v>525</v>
-      </c>
-      <c r="LE2" t="s">
-        <v>525</v>
-      </c>
-      <c r="LF2" t="s">
-        <v>525</v>
-      </c>
-      <c r="LG2" t="s">
-        <v>525</v>
-      </c>
-      <c r="LH2" t="s">
-        <v>525</v>
-      </c>
-      <c r="LI2" t="s">
-        <v>525</v>
-      </c>
-      <c r="LJ2" t="s">
-        <v>525</v>
-      </c>
-      <c r="LK2" t="s">
-        <v>525</v>
-      </c>
-      <c r="LL2" t="s">
-        <v>525</v>
-      </c>
-      <c r="LM2" t="s">
-        <v>525</v>
-      </c>
-      <c r="LN2" t="s">
-        <v>525</v>
-      </c>
-      <c r="LO2" t="s">
-        <v>525</v>
-      </c>
-      <c r="LP2" t="s">
-        <v>525</v>
-      </c>
-      <c r="LQ2" t="s">
-        <v>525</v>
-      </c>
-      <c r="LR2" t="s">
-        <v>525</v>
-      </c>
-      <c r="LS2" t="s">
-        <v>525</v>
-      </c>
-      <c r="LT2" t="s">
-        <v>525</v>
-      </c>
-      <c r="LU2" t="s">
-        <v>525</v>
-      </c>
-      <c r="LV2" t="s">
-        <v>525</v>
-      </c>
-      <c r="LW2" t="s">
-        <v>525</v>
-      </c>
-      <c r="LX2" t="s">
-        <v>525</v>
-      </c>
-      <c r="LY2" t="s">
-        <v>525</v>
-      </c>
-      <c r="LZ2" t="s">
-        <v>525</v>
-      </c>
-      <c r="MA2" t="s">
-        <v>525</v>
-      </c>
-      <c r="MB2" t="s">
-        <v>525</v>
-      </c>
-      <c r="MC2" t="s">
-        <v>525</v>
-      </c>
-      <c r="MD2" t="s">
-        <v>525</v>
-      </c>
-      <c r="ME2" t="s">
-        <v>525</v>
-      </c>
-      <c r="MF2" t="s">
-        <v>525</v>
-      </c>
-      <c r="MG2" t="s">
-        <v>525</v>
-      </c>
-      <c r="MH2" t="s">
-        <v>525</v>
-      </c>
-      <c r="MI2" t="s">
-        <v>525</v>
-      </c>
-      <c r="MJ2" t="s">
-        <v>525</v>
-      </c>
-      <c r="MK2" t="s">
-        <v>525</v>
-      </c>
-      <c r="ML2" t="s">
-        <v>525</v>
-      </c>
-      <c r="MM2" t="s">
-        <v>525</v>
-      </c>
-      <c r="MN2" t="s">
-        <v>525</v>
-      </c>
-      <c r="MO2" t="s">
-        <v>525</v>
-      </c>
-      <c r="MP2" t="s">
-        <v>529</v>
-      </c>
-      <c r="MQ2" t="s">
-        <v>525</v>
-      </c>
-      <c r="MR2" t="s">
-        <v>525</v>
-      </c>
-      <c r="MS2" t="s">
-        <v>525</v>
-      </c>
-      <c r="MT2" t="s">
-        <v>525</v>
-      </c>
-      <c r="MU2" t="s">
-        <v>530</v>
-      </c>
-      <c r="MV2" t="s">
-        <v>525</v>
-      </c>
-      <c r="MW2" t="s">
-        <v>525</v>
-      </c>
-      <c r="MX2" t="s">
-        <v>525</v>
-      </c>
-      <c r="MY2" t="s">
-        <v>525</v>
-      </c>
-      <c r="MZ2" t="s">
-        <v>531</v>
-      </c>
-      <c r="NA2" t="s">
-        <v>525</v>
-      </c>
-      <c r="NB2" t="s">
-        <v>525</v>
-      </c>
-      <c r="NC2" t="s">
-        <v>525</v>
-      </c>
-      <c r="ND2" t="s">
-        <v>525</v>
-      </c>
-      <c r="NE2" t="s">
-        <v>532</v>
-      </c>
-      <c r="NF2" t="s">
-        <v>525</v>
-      </c>
-      <c r="NG2" t="s">
-        <v>525</v>
-      </c>
-      <c r="NH2" t="s">
-        <v>525</v>
-      </c>
-      <c r="NI2" t="s">
-        <v>525</v>
-      </c>
-      <c r="NJ2" t="s">
-        <v>525</v>
-      </c>
-      <c r="NK2" t="s">
-        <v>525</v>
-      </c>
-      <c r="NL2" t="s">
-        <v>525</v>
-      </c>
-      <c r="NM2" t="s">
-        <v>525</v>
-      </c>
-      <c r="NN2" t="s">
-        <v>525</v>
-      </c>
-      <c r="NO2" t="s">
-        <v>525</v>
-      </c>
-      <c r="NP2" t="s">
-        <v>525</v>
-      </c>
-      <c r="NQ2" t="s">
-        <v>525</v>
-      </c>
-      <c r="NR2" t="s">
-        <v>525</v>
-      </c>
-      <c r="NS2" t="s">
-        <v>525</v>
-      </c>
-      <c r="NT2" t="s">
-        <v>525</v>
-      </c>
-      <c r="NU2" t="s">
-        <v>525</v>
-      </c>
-      <c r="NV2" t="s">
-        <v>525</v>
-      </c>
-      <c r="NW2" t="s">
-        <v>525</v>
-      </c>
-      <c r="NX2" t="s">
-        <v>525</v>
-      </c>
-      <c r="NY2" t="s">
-        <v>525</v>
-      </c>
-      <c r="NZ2" t="s">
-        <v>525</v>
-      </c>
-      <c r="OA2" t="s">
-        <v>525</v>
-      </c>
-      <c r="OB2" t="s">
-        <v>525</v>
-      </c>
-      <c r="OC2" t="s">
-        <v>525</v>
-      </c>
-      <c r="OD2" t="s">
-        <v>525</v>
-      </c>
-      <c r="OE2" t="s">
-        <v>525</v>
-      </c>
-      <c r="OF2" t="s">
-        <v>525</v>
-      </c>
-      <c r="OG2" t="s">
-        <v>525</v>
-      </c>
-      <c r="OH2" t="s">
-        <v>533</v>
-      </c>
-      <c r="OI2" t="s">
-        <v>525</v>
-      </c>
-      <c r="OJ2" t="s">
-        <v>525</v>
-      </c>
-      <c r="OK2" t="s">
-        <v>525</v>
-      </c>
-      <c r="OL2" t="s">
-        <v>525</v>
-      </c>
-      <c r="OM2" t="s">
-        <v>525</v>
-      </c>
-      <c r="ON2" t="s">
-        <v>525</v>
-      </c>
-      <c r="OO2" t="s">
-        <v>525</v>
-      </c>
-      <c r="OP2" t="s">
-        <v>525</v>
-      </c>
-      <c r="OQ2" t="s">
-        <v>525</v>
-      </c>
-      <c r="OR2" t="s">
-        <v>525</v>
-      </c>
-      <c r="OS2" t="s">
-        <v>525</v>
-      </c>
-      <c r="OT2" t="s">
-        <v>525</v>
-      </c>
-      <c r="OU2" t="s">
-        <v>525</v>
-      </c>
-      <c r="OV2" t="s">
-        <v>525</v>
-      </c>
-      <c r="OW2" t="s">
-        <v>525</v>
-      </c>
-      <c r="OX2" t="s">
-        <v>525</v>
-      </c>
-      <c r="OY2" t="s">
-        <v>525</v>
-      </c>
-      <c r="OZ2" t="s">
-        <v>525</v>
-      </c>
-      <c r="PA2" t="s">
-        <v>534</v>
-      </c>
-      <c r="PB2" t="s">
-        <v>525</v>
-      </c>
-      <c r="PC2" t="s">
-        <v>525</v>
-      </c>
-      <c r="PD2" t="s">
-        <v>525</v>
-      </c>
-      <c r="PE2" t="s">
-        <v>535</v>
-      </c>
-      <c r="PF2" t="s">
-        <v>525</v>
-      </c>
-      <c r="PG2" t="s">
-        <v>536</v>
-      </c>
-      <c r="PH2" t="s">
-        <v>525</v>
-      </c>
-      <c r="PI2" t="s">
-        <v>537</v>
-      </c>
-      <c r="PJ2" t="s">
-        <v>525</v>
-      </c>
-      <c r="PK2" t="s">
-        <v>538</v>
-      </c>
-      <c r="PL2" t="s">
-        <v>525</v>
-      </c>
-      <c r="PM2" t="s">
-        <v>525</v>
-      </c>
-      <c r="PN2" t="s">
-        <v>525</v>
-      </c>
-      <c r="PO2" t="s">
-        <v>525</v>
-      </c>
-      <c r="PP2" t="s">
-        <v>525</v>
-      </c>
-      <c r="PQ2" t="s">
-        <v>539</v>
-      </c>
-      <c r="PR2" t="s">
-        <v>540</v>
-      </c>
-      <c r="PS2" t="s">
-        <v>541</v>
-      </c>
-      <c r="PT2" t="s">
-        <v>542</v>
-      </c>
-      <c r="PU2" t="s">
-        <v>543</v>
-      </c>
-      <c r="PV2" t="s">
-        <v>544</v>
-      </c>
-      <c r="PW2" t="s">
-        <v>545</v>
-      </c>
-      <c r="PX2" t="s">
-        <v>546</v>
-      </c>
-      <c r="PY2" t="s">
-        <v>547</v>
-      </c>
-      <c r="PZ2" t="s">
-        <v>548</v>
-      </c>
-      <c r="QA2" t="s">
-        <v>549</v>
-      </c>
-      <c r="QB2" t="s">
-        <v>550</v>
-      </c>
-      <c r="QC2" t="s">
-        <v>551</v>
-      </c>
-      <c r="QD2" t="s">
-        <v>552</v>
-      </c>
-      <c r="QE2" t="s">
-        <v>553</v>
-      </c>
-      <c r="QF2" t="s">
-        <v>554</v>
-      </c>
-      <c r="QG2" t="s">
-        <v>555</v>
-      </c>
-      <c r="QH2" t="s">
-        <v>556</v>
-      </c>
-      <c r="QI2" t="s">
-        <v>557</v>
-      </c>
-      <c r="QJ2" t="s">
-        <v>558</v>
-      </c>
-      <c r="QK2" t="s">
-        <v>559</v>
-      </c>
-      <c r="QL2" t="s">
-        <v>560</v>
-      </c>
-      <c r="QM2" t="s">
-        <v>561</v>
-      </c>
-      <c r="QN2" t="s">
-        <v>562</v>
-      </c>
-      <c r="QO2" t="s">
-        <v>563</v>
-      </c>
-      <c r="QP2" t="s">
-        <v>564</v>
-      </c>
-      <c r="QQ2" t="s">
-        <v>565</v>
-      </c>
-      <c r="QR2" t="s">
-        <v>566</v>
-      </c>
-      <c r="QS2" t="s">
-        <v>567</v>
-      </c>
-      <c r="QT2" t="s">
-        <v>568</v>
-      </c>
-      <c r="QU2" t="s">
-        <v>569</v>
-      </c>
-      <c r="QV2" t="s">
-        <v>570</v>
-      </c>
-      <c r="QW2" t="s">
-        <v>571</v>
-      </c>
-      <c r="QX2" t="s">
-        <v>572</v>
-      </c>
-      <c r="QY2" t="s">
-        <v>573</v>
-      </c>
-      <c r="QZ2" t="s">
-        <v>574</v>
-      </c>
-      <c r="RA2" t="s">
-        <v>575</v>
-      </c>
-      <c r="RB2" t="s">
-        <v>576</v>
-      </c>
-      <c r="RC2" t="s">
-        <v>577</v>
-      </c>
-      <c r="RD2" t="s">
-        <v>578</v>
-      </c>
-      <c r="RE2" t="s">
-        <v>579</v>
-      </c>
-      <c r="RF2" t="s">
-        <v>580</v>
-      </c>
-      <c r="RG2" t="s">
-        <v>581</v>
-      </c>
-      <c r="RH2" t="s">
-        <v>582</v>
-      </c>
-      <c r="RI2" t="s">
-        <v>583</v>
-      </c>
-      <c r="RJ2" t="s">
-        <v>584</v>
-      </c>
-      <c r="RK2" t="s">
-        <v>585</v>
-      </c>
-      <c r="RL2" t="s">
-        <v>586</v>
-      </c>
-      <c r="RM2" t="s">
-        <v>587</v>
-      </c>
-      <c r="RN2" t="s">
-        <v>588</v>
-      </c>
-      <c r="RO2" t="s">
-        <v>589</v>
-      </c>
-      <c r="RP2" t="s">
-        <v>590</v>
-      </c>
-      <c r="RQ2" t="s">
-        <v>591</v>
-      </c>
-      <c r="RR2" t="s">
-        <v>592</v>
-      </c>
-      <c r="RS2" t="s">
-        <v>593</v>
-      </c>
-      <c r="RT2" t="s">
-        <v>594</v>
-      </c>
-      <c r="RU2" t="s">
-        <v>595</v>
-      </c>
-      <c r="RV2" t="s">
-        <v>596</v>
-      </c>
-      <c r="RW2" t="s">
-        <v>597</v>
-      </c>
-      <c r="RX2" t="s">
-        <v>598</v>
-      </c>
-      <c r="RY2" t="s">
-        <v>599</v>
-      </c>
-      <c r="RZ2" t="s">
-        <v>600</v>
-      </c>
-      <c r="SA2" t="s">
-        <v>601</v>
-      </c>
-      <c r="SB2" t="s">
-        <v>602</v>
-      </c>
-      <c r="SC2" t="s">
-        <v>603</v>
-      </c>
-      <c r="SD2" t="s">
-        <v>604</v>
-      </c>
-      <c r="SE2" t="s">
-        <v>605</v>
-      </c>
-      <c r="SF2" t="s">
-        <v>606</v>
-      </c>
-      <c r="SG2" t="s">
-        <v>607</v>
-      </c>
-      <c r="SH2" t="s">
-        <v>608</v>
-      </c>
-      <c r="SI2" t="s">
-        <v>609</v>
-      </c>
-      <c r="SJ2" t="s">
-        <v>610</v>
-      </c>
-      <c r="SK2" t="s">
-        <v>611</v>
-      </c>
-      <c r="SL2" t="s">
-        <v>525</v>
-      </c>
-      <c r="SM2" t="s">
-        <v>525</v>
-      </c>
-      <c r="SN2" t="s">
-        <v>525</v>
-      </c>
-      <c r="SO2" t="s">
-        <v>525</v>
-      </c>
-      <c r="SP2" t="s">
-        <v>525</v>
-      </c>
-      <c r="SQ2" t="s">
-        <v>525</v>
-      </c>
-      <c r="SR2" t="s">
-        <v>525</v>
-      </c>
-      <c r="SS2" t="s">
-        <v>525</v>
-      </c>
-      <c r="ST2" t="s">
-        <v>525</v>
-      </c>
-      <c r="SU2" t="s">
-        <v>525</v>
-      </c>
-      <c r="SV2" t="s">
-        <v>525</v>
-      </c>
-      <c r="SW2" t="s">
-        <v>525</v>
-      </c>
-      <c r="SX2" t="s">
-        <v>525</v>
-      </c>
-      <c r="SY2" t="s">
-        <v>525</v>
-      </c>
-      <c r="SZ2" t="s">
-        <v>525</v>
-      </c>
-      <c r="TA2" t="s">
-        <v>525</v>
-      </c>
-      <c r="TB2" t="s">
-        <v>525</v>
-      </c>
-      <c r="TC2" t="s">
-        <v>525</v>
-      </c>
-      <c r="TD2" t="s">
-        <v>525</v>
-      </c>
+        <v>527</v>
+      </c>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
+      <c r="AA2"/>
+      <c r="AB2"/>
+      <c r="AC2"/>
+      <c r="AD2"/>
+      <c r="AE2"/>
+      <c r="AF2"/>
+      <c r="AG2"/>
+      <c r="AH2"/>
+      <c r="AI2"/>
+      <c r="AJ2"/>
+      <c r="AK2"/>
+      <c r="AL2"/>
+      <c r="AM2"/>
+      <c r="AN2"/>
+      <c r="AO2"/>
+      <c r="AP2"/>
+      <c r="AQ2"/>
+      <c r="AR2"/>
+      <c r="AS2"/>
+      <c r="AT2"/>
+      <c r="AU2"/>
+      <c r="AV2"/>
+      <c r="AW2"/>
+      <c r="AX2"/>
+      <c r="AY2"/>
+      <c r="AZ2"/>
+      <c r="BA2"/>
+      <c r="BB2"/>
+      <c r="BC2"/>
+      <c r="BD2"/>
+      <c r="BE2"/>
+      <c r="BF2"/>
+      <c r="BG2"/>
+      <c r="BH2"/>
+      <c r="BI2"/>
+      <c r="BJ2"/>
+      <c r="BK2"/>
+      <c r="BL2"/>
+      <c r="BM2"/>
+      <c r="BN2"/>
+      <c r="BO2"/>
+      <c r="BP2"/>
+      <c r="BQ2"/>
+      <c r="BR2"/>
+      <c r="BS2"/>
+      <c r="BT2"/>
+      <c r="BU2"/>
+      <c r="BV2"/>
+      <c r="BW2"/>
+      <c r="BX2"/>
+      <c r="BY2"/>
+      <c r="BZ2"/>
+      <c r="CA2"/>
+      <c r="CB2"/>
+      <c r="CC2"/>
+      <c r="CD2"/>
+      <c r="CE2"/>
+      <c r="CF2"/>
+      <c r="CG2"/>
+      <c r="CH2"/>
+      <c r="CI2"/>
+      <c r="CJ2"/>
+      <c r="CK2"/>
+      <c r="CL2"/>
+      <c r="CM2"/>
+      <c r="CN2"/>
+      <c r="CO2"/>
+      <c r="CP2"/>
+      <c r="CQ2"/>
+      <c r="CR2"/>
+      <c r="CS2"/>
+      <c r="CT2"/>
+      <c r="CU2"/>
+      <c r="CV2"/>
+      <c r="CW2"/>
+      <c r="CX2"/>
+      <c r="CY2"/>
+      <c r="CZ2"/>
+      <c r="DA2"/>
+      <c r="DB2"/>
+      <c r="DC2"/>
+      <c r="DD2"/>
+      <c r="DE2"/>
+      <c r="DF2"/>
+      <c r="DG2"/>
+      <c r="DH2"/>
+      <c r="DI2"/>
+      <c r="DJ2"/>
+      <c r="DK2"/>
+      <c r="DL2"/>
+      <c r="DM2"/>
+      <c r="DN2"/>
+      <c r="DO2"/>
+      <c r="DP2"/>
+      <c r="DQ2"/>
+      <c r="DR2"/>
+      <c r="DS2"/>
+      <c r="DT2"/>
+      <c r="DU2"/>
+      <c r="DV2"/>
+      <c r="DW2"/>
+      <c r="DX2"/>
+      <c r="DY2"/>
+      <c r="DZ2"/>
+      <c r="EA2"/>
+      <c r="EB2"/>
+      <c r="EC2"/>
+      <c r="ED2"/>
+      <c r="EE2"/>
+      <c r="EF2"/>
+      <c r="EG2"/>
+      <c r="EH2"/>
+      <c r="EI2"/>
+      <c r="EJ2"/>
+      <c r="EK2"/>
+      <c r="EL2"/>
+      <c r="EM2"/>
+      <c r="EN2"/>
+      <c r="EO2"/>
+      <c r="EP2"/>
+      <c r="EQ2"/>
+      <c r="ER2"/>
+      <c r="ES2"/>
+      <c r="ET2"/>
+      <c r="EU2"/>
+      <c r="EV2"/>
+      <c r="EW2"/>
+      <c r="EX2"/>
+      <c r="EY2"/>
+      <c r="EZ2"/>
+      <c r="FA2"/>
+      <c r="FB2"/>
+      <c r="FC2"/>
+      <c r="FD2"/>
+      <c r="FE2"/>
+      <c r="FF2"/>
+      <c r="FG2"/>
+      <c r="FH2"/>
+      <c r="FI2"/>
+      <c r="FJ2"/>
+      <c r="FK2"/>
+      <c r="FL2"/>
+      <c r="FM2"/>
+      <c r="FN2"/>
+      <c r="FO2"/>
+      <c r="FP2"/>
+      <c r="FQ2"/>
+      <c r="FR2"/>
+      <c r="FS2"/>
+      <c r="FT2"/>
+      <c r="FU2"/>
+      <c r="FV2"/>
+      <c r="FW2"/>
+      <c r="FX2"/>
+      <c r="FY2"/>
+      <c r="FZ2"/>
+      <c r="GA2"/>
+      <c r="GB2"/>
+      <c r="GC2"/>
+      <c r="GD2"/>
+      <c r="GE2"/>
+      <c r="GF2"/>
+      <c r="GG2"/>
+      <c r="GH2"/>
+      <c r="GI2"/>
+      <c r="GJ2"/>
+      <c r="GK2"/>
+      <c r="GL2"/>
+      <c r="GM2"/>
+      <c r="GN2"/>
+      <c r="GO2"/>
+      <c r="GP2"/>
+      <c r="GQ2"/>
+      <c r="GR2"/>
+      <c r="GS2"/>
+      <c r="GT2"/>
+      <c r="GU2"/>
+      <c r="GV2"/>
+      <c r="GW2"/>
+      <c r="GX2"/>
+      <c r="GY2"/>
+      <c r="GZ2"/>
+      <c r="HA2"/>
+      <c r="HB2"/>
+      <c r="HC2"/>
+      <c r="HD2"/>
+      <c r="HE2"/>
+      <c r="HF2"/>
+      <c r="HG2"/>
+      <c r="HH2"/>
+      <c r="HI2"/>
+      <c r="HJ2"/>
+      <c r="HK2"/>
+      <c r="HL2"/>
+      <c r="HM2"/>
+      <c r="HN2"/>
+      <c r="HO2"/>
+      <c r="HP2"/>
+      <c r="HQ2"/>
+      <c r="HR2"/>
+      <c r="HS2"/>
+      <c r="HT2"/>
+      <c r="HU2"/>
+      <c r="HV2"/>
+      <c r="HW2"/>
+      <c r="HX2"/>
+      <c r="HY2"/>
+      <c r="HZ2"/>
+      <c r="IA2"/>
+      <c r="IB2"/>
+      <c r="IC2"/>
+      <c r="ID2"/>
+      <c r="IE2"/>
+      <c r="IF2"/>
+      <c r="IG2"/>
+      <c r="IH2"/>
+      <c r="II2"/>
+      <c r="IJ2"/>
+      <c r="IK2"/>
+      <c r="IL2"/>
+      <c r="IM2"/>
+      <c r="IN2"/>
+      <c r="IO2"/>
+      <c r="IP2"/>
+      <c r="IQ2"/>
+      <c r="IR2"/>
+      <c r="IS2"/>
+      <c r="IT2"/>
+      <c r="IU2"/>
+      <c r="IV2"/>
+      <c r="IW2"/>
+      <c r="IX2"/>
+      <c r="IY2"/>
+      <c r="IZ2"/>
+      <c r="JA2"/>
+      <c r="JB2"/>
+      <c r="JC2"/>
+      <c r="JD2"/>
+      <c r="JE2"/>
+      <c r="JF2"/>
+      <c r="JG2"/>
+      <c r="JH2"/>
+      <c r="JI2"/>
+      <c r="JJ2"/>
+      <c r="JK2"/>
+      <c r="JL2"/>
+      <c r="JM2"/>
+      <c r="JN2"/>
+      <c r="JO2"/>
+      <c r="JP2"/>
+      <c r="JQ2"/>
+      <c r="JR2"/>
+      <c r="JS2"/>
+      <c r="JT2"/>
+      <c r="JU2"/>
+      <c r="JV2"/>
+      <c r="JW2"/>
+      <c r="JX2"/>
+      <c r="JY2"/>
+      <c r="JZ2"/>
+      <c r="KA2"/>
+      <c r="KB2"/>
+      <c r="KC2"/>
+      <c r="KD2"/>
+      <c r="KE2"/>
+      <c r="KF2"/>
+      <c r="KG2"/>
+      <c r="KH2"/>
+      <c r="KI2"/>
+      <c r="KJ2"/>
+      <c r="KK2"/>
+      <c r="KL2"/>
+      <c r="KM2"/>
+      <c r="KN2"/>
+      <c r="KO2"/>
+      <c r="KP2"/>
+      <c r="KQ2"/>
+      <c r="KR2"/>
+      <c r="KS2"/>
+      <c r="KT2"/>
+      <c r="KU2"/>
+      <c r="KV2"/>
+      <c r="KW2"/>
+      <c r="KX2"/>
+      <c r="KY2"/>
+      <c r="KZ2"/>
+      <c r="LA2"/>
+      <c r="LB2"/>
+      <c r="LC2"/>
+      <c r="LD2"/>
+      <c r="LE2"/>
+      <c r="LF2"/>
+      <c r="LG2"/>
+      <c r="LH2"/>
+      <c r="LI2"/>
+      <c r="LJ2"/>
+      <c r="LK2"/>
+      <c r="LL2"/>
+      <c r="LM2"/>
+      <c r="LN2"/>
+      <c r="LO2"/>
+      <c r="LP2"/>
+      <c r="LQ2"/>
+      <c r="LR2"/>
+      <c r="LS2"/>
+      <c r="LT2"/>
+      <c r="LU2"/>
+      <c r="LV2"/>
+      <c r="LW2"/>
+      <c r="LX2"/>
+      <c r="LY2"/>
+      <c r="LZ2"/>
+      <c r="MA2"/>
+      <c r="MB2"/>
+      <c r="MC2"/>
+      <c r="MD2"/>
+      <c r="ME2"/>
+      <c r="MF2"/>
+      <c r="MG2"/>
+      <c r="MH2"/>
+      <c r="MI2"/>
+      <c r="MJ2"/>
+      <c r="MK2"/>
+      <c r="ML2"/>
+      <c r="MM2"/>
+      <c r="MN2"/>
+      <c r="MO2"/>
+      <c r="MP2" t="n">
+        <v>11.71525</v>
+      </c>
+      <c r="MQ2"/>
+      <c r="MR2"/>
+      <c r="MS2"/>
+      <c r="MT2"/>
+      <c r="MU2" t="n">
+        <v>9.437288</v>
+      </c>
+      <c r="MV2"/>
+      <c r="MW2"/>
+      <c r="MX2"/>
+      <c r="MY2"/>
+      <c r="MZ2" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="NA2"/>
+      <c r="NB2"/>
+      <c r="NC2"/>
+      <c r="ND2"/>
+      <c r="NE2" t="n">
+        <v>28.27119</v>
+      </c>
+      <c r="NF2"/>
+      <c r="NG2"/>
+      <c r="NH2"/>
+      <c r="NI2"/>
+      <c r="NJ2"/>
+      <c r="NK2"/>
+      <c r="NL2"/>
+      <c r="NM2"/>
+      <c r="NN2"/>
+      <c r="NO2"/>
+      <c r="NP2"/>
+      <c r="NQ2"/>
+      <c r="NR2"/>
+      <c r="NS2"/>
+      <c r="NT2"/>
+      <c r="NU2"/>
+      <c r="NV2"/>
+      <c r="NW2"/>
+      <c r="NX2"/>
+      <c r="NY2"/>
+      <c r="NZ2"/>
+      <c r="OA2"/>
+      <c r="OB2"/>
+      <c r="OC2"/>
+      <c r="OD2"/>
+      <c r="OE2"/>
+      <c r="OF2"/>
+      <c r="OG2"/>
+      <c r="OH2" t="n">
+        <v>66.56184</v>
+      </c>
+      <c r="OI2"/>
+      <c r="OJ2"/>
+      <c r="OK2"/>
+      <c r="OL2"/>
+      <c r="OM2"/>
+      <c r="ON2"/>
+      <c r="OO2"/>
+      <c r="OP2"/>
+      <c r="OQ2"/>
+      <c r="OR2"/>
+      <c r="OS2"/>
+      <c r="OT2"/>
+      <c r="OU2"/>
+      <c r="OV2"/>
+      <c r="OW2"/>
+      <c r="OX2"/>
+      <c r="OY2"/>
+      <c r="OZ2"/>
+      <c r="PA2" t="n">
+        <v>191.5823</v>
+      </c>
+      <c r="PB2"/>
+      <c r="PC2"/>
+      <c r="PD2"/>
+      <c r="PE2" t="n">
+        <v>221.7143</v>
+      </c>
+      <c r="PF2"/>
+      <c r="PG2" t="n">
+        <v>207.0401</v>
+      </c>
+      <c r="PH2"/>
+      <c r="PI2" t="n">
+        <v>116.3568</v>
+      </c>
+      <c r="PJ2"/>
+      <c r="PK2" t="n">
+        <v>39.14441</v>
+      </c>
+      <c r="PL2"/>
+      <c r="PM2"/>
+      <c r="PN2"/>
+      <c r="PO2"/>
+      <c r="PP2"/>
+      <c r="PQ2" t="n">
+        <v>174.3379</v>
+      </c>
+      <c r="PR2" t="n">
+        <v>210.6909</v>
+      </c>
+      <c r="PS2" t="n">
+        <v>253.2374</v>
+      </c>
+      <c r="PT2" t="n">
+        <v>256.986</v>
+      </c>
+      <c r="PU2" t="n">
+        <v>198.2038</v>
+      </c>
+      <c r="PV2" t="n">
+        <v>221.5496</v>
+      </c>
+      <c r="PW2" t="n">
+        <v>249.1745</v>
+      </c>
+      <c r="PX2" t="n">
+        <v>272.0501</v>
+      </c>
+      <c r="PY2" t="n">
+        <v>253.903</v>
+      </c>
+      <c r="PZ2" t="n">
+        <v>239.5178</v>
+      </c>
+      <c r="QA2" t="n">
+        <v>247.3697</v>
+      </c>
+      <c r="QB2" t="n">
+        <v>237.3168</v>
+      </c>
+      <c r="QC2" t="n">
+        <v>239.3883</v>
+      </c>
+      <c r="QD2" t="n">
+        <v>203.9249</v>
+      </c>
+      <c r="QE2" t="n">
+        <v>215.1192</v>
+      </c>
+      <c r="QF2" t="n">
+        <v>232.4223</v>
+      </c>
+      <c r="QG2" t="n">
+        <v>237.9568</v>
+      </c>
+      <c r="QH2" t="n">
+        <v>205.4061</v>
+      </c>
+      <c r="QI2" t="n">
+        <v>94.00328</v>
+      </c>
+      <c r="QJ2" t="n">
+        <v>86.95579</v>
+      </c>
+      <c r="QK2" t="n">
+        <v>97.49614</v>
+      </c>
+      <c r="QL2" t="n">
+        <v>109.982</v>
+      </c>
+      <c r="QM2" t="n">
+        <v>137.0347</v>
+      </c>
+      <c r="QN2" t="n">
+        <v>175.8539</v>
+      </c>
+      <c r="QO2" t="n">
+        <v>230.605</v>
+      </c>
+      <c r="QP2" t="n">
+        <v>237.3231</v>
+      </c>
+      <c r="QQ2" t="n">
+        <v>240.2674</v>
+      </c>
+      <c r="QR2" t="n">
+        <v>228.2823</v>
+      </c>
+      <c r="QS2" t="n">
+        <v>232.4848</v>
+      </c>
+      <c r="QT2" t="n">
+        <v>217.4192</v>
+      </c>
+      <c r="QU2" t="n">
+        <v>261.4937</v>
+      </c>
+      <c r="QV2" t="n">
+        <v>280.6668</v>
+      </c>
+      <c r="QW2" t="n">
+        <v>299.94</v>
+      </c>
+      <c r="QX2" t="n">
+        <v>291.1403</v>
+      </c>
+      <c r="QY2" t="n">
+        <v>309.9208</v>
+      </c>
+      <c r="QZ2" t="n">
+        <v>330.7624</v>
+      </c>
+      <c r="RA2" t="n">
+        <v>359.04</v>
+      </c>
+      <c r="RB2" t="n">
+        <v>343.0659</v>
+      </c>
+      <c r="RC2" t="n">
+        <v>360.6737</v>
+      </c>
+      <c r="RD2" t="n">
+        <v>348.1239</v>
+      </c>
+      <c r="RE2" t="n">
+        <v>345.8186</v>
+      </c>
+      <c r="RF2" t="n">
+        <v>332.1658</v>
+      </c>
+      <c r="RG2" t="n">
+        <v>314.7921</v>
+      </c>
+      <c r="RH2" t="n">
+        <v>316.143</v>
+      </c>
+      <c r="RI2" t="n">
+        <v>319.7672</v>
+      </c>
+      <c r="RJ2" t="n">
+        <v>312.0258</v>
+      </c>
+      <c r="RK2" t="n">
+        <v>325.3861</v>
+      </c>
+      <c r="RL2" t="n">
+        <v>349.0882</v>
+      </c>
+      <c r="RM2" t="n">
+        <v>325.681</v>
+      </c>
+      <c r="RN2" t="n">
+        <v>321.1535</v>
+      </c>
+      <c r="RO2" t="n">
+        <v>344.2735</v>
+      </c>
+      <c r="RP2" t="n">
+        <v>309.1993</v>
+      </c>
+      <c r="RQ2" t="n">
+        <v>327.6047</v>
+      </c>
+      <c r="RR2" t="n">
+        <v>329.4241</v>
+      </c>
+      <c r="RS2" t="n">
+        <v>323.973</v>
+      </c>
+      <c r="RT2" t="n">
+        <v>305.44</v>
+      </c>
+      <c r="RU2" t="n">
+        <v>303.3771</v>
+      </c>
+      <c r="RV2" t="n">
+        <v>309.5851</v>
+      </c>
+      <c r="RW2" t="n">
+        <v>298.3617</v>
+      </c>
+      <c r="RX2" t="n">
+        <v>302.8378</v>
+      </c>
+      <c r="RY2" t="n">
+        <v>300.6828</v>
+      </c>
+      <c r="RZ2" t="n">
+        <v>302.4064</v>
+      </c>
+      <c r="SA2" t="n">
+        <v>297.7173</v>
+      </c>
+      <c r="SB2" t="n">
+        <v>293.6175</v>
+      </c>
+      <c r="SC2" t="n">
+        <v>286.2953</v>
+      </c>
+      <c r="SD2" t="n">
+        <v>267.0846</v>
+      </c>
+      <c r="SE2" t="n">
+        <v>237.6964</v>
+      </c>
+      <c r="SF2" t="n">
+        <v>117.4343</v>
+      </c>
+      <c r="SG2" t="n">
+        <v>98.69734</v>
+      </c>
+      <c r="SH2" t="n">
+        <v>99.64209</v>
+      </c>
+      <c r="SI2" t="n">
+        <v>104.4145</v>
+      </c>
+      <c r="SJ2" t="n">
+        <v>115.6006</v>
+      </c>
+      <c r="SK2" t="n">
+        <v>124.6864</v>
+      </c>
+      <c r="SL2"/>
+      <c r="SM2"/>
+      <c r="SN2"/>
+      <c r="SO2"/>
+      <c r="SP2"/>
+      <c r="SQ2"/>
+      <c r="SR2"/>
+      <c r="SS2"/>
+      <c r="ST2"/>
+      <c r="SU2"/>
+      <c r="SV2"/>
+      <c r="SW2"/>
+      <c r="SX2"/>
+      <c r="SY2"/>
+      <c r="SZ2"/>
+      <c r="TA2"/>
+      <c r="TB2"/>
+      <c r="TC2"/>
+      <c r="TD2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -5120,24 +4000,24 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>612</v>
+        <v>528</v>
       </c>
       <c r="C1" t="s">
-        <v>613</v>
+        <v>529</v>
       </c>
       <c r="D1" t="s">
         <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>614</v>
+        <v>530</v>
       </c>
       <c r="F1" t="s">
-        <v>615</v>
+        <v>531</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B2" t="n">
         <v>1946.0</v>
@@ -5146,7 +4026,7 @@
         <v>1991.0</v>
       </c>
       <c r="D2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E2" t="n">
         <v>1845.0</v>
@@ -5157,7 +4037,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B3" t="n">
         <v>1946.0</v>
@@ -5166,7 +4046,7 @@
         <v>1991.0</v>
       </c>
       <c r="D3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E3" t="n">
         <v>1850.0</v>
@@ -5177,7 +4057,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B4" t="n">
         <v>1946.0</v>
@@ -5186,7 +4066,7 @@
         <v>1991.0</v>
       </c>
       <c r="D4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E4" t="n">
         <v>1855.0</v>
@@ -5197,7 +4077,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B5" t="n">
         <v>1946.0</v>
@@ -5206,7 +4086,7 @@
         <v>1991.0</v>
       </c>
       <c r="D5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E5" t="n">
         <v>1860.0</v>
@@ -5217,7 +4097,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B6" t="n">
         <v>1946.0</v>
@@ -5226,7 +4106,7 @@
         <v>1991.0</v>
       </c>
       <c r="D6" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E6" t="n">
         <v>1889.0</v>
@@ -5237,7 +4117,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B7" t="n">
         <v>1946.0</v>
@@ -5246,7 +4126,7 @@
         <v>1991.0</v>
       </c>
       <c r="D7" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E7" t="n">
         <v>1908.0</v>
@@ -5257,7 +4137,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B8" t="n">
         <v>1946.0</v>
@@ -5266,7 +4146,7 @@
         <v>1991.0</v>
       </c>
       <c r="D8" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E8" t="n">
         <v>1912.0</v>
@@ -5277,7 +4157,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B9" t="n">
         <v>1946.0</v>
@@ -5286,7 +4166,7 @@
         <v>1991.0</v>
       </c>
       <c r="D9" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E9" t="n">
         <v>1914.0</v>
@@ -5297,7 +4177,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B10" t="n">
         <v>1946.0</v>
@@ -5306,7 +4186,7 @@
         <v>1991.0</v>
       </c>
       <c r="D10" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E10" t="n">
         <v>1916.0</v>
@@ -5317,7 +4197,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B11" t="n">
         <v>1946.0</v>
@@ -5326,7 +4206,7 @@
         <v>1991.0</v>
       </c>
       <c r="D11" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E11" t="n">
         <v>1918.0</v>
@@ -5337,7 +4217,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B12" t="n">
         <v>1946.0</v>
@@ -5346,7 +4226,7 @@
         <v>1991.0</v>
       </c>
       <c r="D12" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E12" t="n">
         <v>1924.0</v>
@@ -5357,7 +4237,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B13" t="n">
         <v>1946.0</v>
@@ -5366,7 +4246,7 @@
         <v>1991.0</v>
       </c>
       <c r="D13" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E13" t="n">
         <v>1925.0</v>
@@ -5377,7 +4257,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B14" t="n">
         <v>1946.0</v>
@@ -5386,7 +4266,7 @@
         <v>1991.0</v>
       </c>
       <c r="D14" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E14" t="n">
         <v>1926.0</v>
@@ -5397,7 +4277,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B15" t="n">
         <v>1946.0</v>
@@ -5406,7 +4286,7 @@
         <v>1991.0</v>
       </c>
       <c r="D15" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E15" t="n">
         <v>1927.0</v>
@@ -5417,7 +4297,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B16" t="n">
         <v>1946.0</v>
@@ -5426,7 +4306,7 @@
         <v>1991.0</v>
       </c>
       <c r="D16" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E16" t="n">
         <v>1928.0</v>
@@ -5437,7 +4317,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B17" t="n">
         <v>1946.0</v>
@@ -5446,7 +4326,7 @@
         <v>1991.0</v>
       </c>
       <c r="D17" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E17" t="n">
         <v>1929.0</v>
@@ -5457,7 +4337,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B18" t="n">
         <v>1946.0</v>
@@ -5466,7 +4346,7 @@
         <v>1991.0</v>
       </c>
       <c r="D18" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E18" t="n">
         <v>1930.0</v>
@@ -5477,7 +4357,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B19" t="n">
         <v>1946.0</v>
@@ -5486,7 +4366,7 @@
         <v>1991.0</v>
       </c>
       <c r="D19" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E19" t="n">
         <v>1931.0</v>
@@ -5497,7 +4377,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B20" t="n">
         <v>1946.0</v>
@@ -5506,7 +4386,7 @@
         <v>1991.0</v>
       </c>
       <c r="D20" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E20" t="n">
         <v>1932.0</v>
@@ -5517,7 +4397,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B21" t="n">
         <v>1946.0</v>
@@ -5526,7 +4406,7 @@
         <v>1991.0</v>
       </c>
       <c r="D21" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E21" t="n">
         <v>1933.0</v>
@@ -5537,7 +4417,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B22" t="n">
         <v>1946.0</v>
@@ -5546,7 +4426,7 @@
         <v>1991.0</v>
       </c>
       <c r="D22" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E22" t="n">
         <v>1934.0</v>
@@ -5557,7 +4437,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B23" t="n">
         <v>1946.0</v>
@@ -5566,7 +4446,7 @@
         <v>1991.0</v>
       </c>
       <c r="D23" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E23" t="n">
         <v>1935.0</v>
@@ -5577,7 +4457,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B24" t="n">
         <v>1946.0</v>
@@ -5586,7 +4466,7 @@
         <v>1991.0</v>
       </c>
       <c r="D24" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E24" t="n">
         <v>1936.0</v>
@@ -5597,7 +4477,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B25" t="n">
         <v>1946.0</v>
@@ -5606,7 +4486,7 @@
         <v>1991.0</v>
       </c>
       <c r="D25" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E25" t="n">
         <v>1937.0</v>
@@ -5617,7 +4497,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B26" t="n">
         <v>1946.0</v>
@@ -5626,7 +4506,7 @@
         <v>1991.0</v>
       </c>
       <c r="D26" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E26" t="n">
         <v>1938.0</v>
@@ -5637,7 +4517,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B27" t="n">
         <v>1946.0</v>
@@ -5646,7 +4526,7 @@
         <v>1991.0</v>
       </c>
       <c r="D27" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E27" t="n">
         <v>1939.0</v>
@@ -5657,7 +4537,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B28" t="n">
         <v>1946.0</v>
@@ -5666,7 +4546,7 @@
         <v>1991.0</v>
       </c>
       <c r="D28" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E28" t="n">
         <v>1940.0</v>
@@ -5677,7 +4557,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B29" t="n">
         <v>1946.0</v>
@@ -5686,7 +4566,7 @@
         <v>1991.0</v>
       </c>
       <c r="D29" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E29" t="n">
         <v>1941.0</v>
@@ -5697,7 +4577,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B30" t="n">
         <v>1946.0</v>
@@ -5706,7 +4586,7 @@
         <v>1991.0</v>
       </c>
       <c r="D30" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E30" t="n">
         <v>1942.0</v>
@@ -5717,7 +4597,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B31" t="n">
         <v>1946.0</v>
@@ -5726,7 +4606,7 @@
         <v>1991.0</v>
       </c>
       <c r="D31" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E31" t="n">
         <v>1943.0</v>
@@ -5737,7 +4617,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B32" t="n">
         <v>1946.0</v>
@@ -5746,7 +4626,7 @@
         <v>1991.0</v>
       </c>
       <c r="D32" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E32" t="n">
         <v>1944.0</v>
@@ -5757,7 +4637,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B33" t="n">
         <v>1946.0</v>
@@ -5766,7 +4646,7 @@
         <v>1991.0</v>
       </c>
       <c r="D33" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E33" t="n">
         <v>1945.0</v>
@@ -5777,7 +4657,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B34" t="n">
         <v>1946.0</v>
@@ -5786,7 +4666,7 @@
         <v>1991.0</v>
       </c>
       <c r="D34" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E34" t="n">
         <v>1946.0</v>
@@ -5797,7 +4677,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B35" t="n">
         <v>1946.0</v>
@@ -5806,7 +4686,7 @@
         <v>1991.0</v>
       </c>
       <c r="D35" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E35" t="n">
         <v>1947.0</v>
@@ -5817,7 +4697,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B36" t="n">
         <v>1946.0</v>
@@ -5826,7 +4706,7 @@
         <v>1991.0</v>
       </c>
       <c r="D36" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E36" t="n">
         <v>1948.0</v>
@@ -5837,7 +4717,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B37" t="n">
         <v>1946.0</v>
@@ -5846,7 +4726,7 @@
         <v>1991.0</v>
       </c>
       <c r="D37" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E37" t="n">
         <v>1949.0</v>
@@ -5857,7 +4737,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B38" t="n">
         <v>1946.0</v>
@@ -5866,7 +4746,7 @@
         <v>1991.0</v>
       </c>
       <c r="D38" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E38" t="n">
         <v>1950.0</v>
@@ -5877,7 +4757,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B39" t="n">
         <v>1946.0</v>
@@ -5886,7 +4766,7 @@
         <v>1991.0</v>
       </c>
       <c r="D39" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E39" t="n">
         <v>1951.0</v>
@@ -5897,7 +4777,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B40" t="n">
         <v>1946.0</v>
@@ -5906,7 +4786,7 @@
         <v>1991.0</v>
       </c>
       <c r="D40" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E40" t="n">
         <v>1952.0</v>
@@ -5917,7 +4797,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B41" t="n">
         <v>1946.0</v>
@@ -5926,7 +4806,7 @@
         <v>1991.0</v>
       </c>
       <c r="D41" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E41" t="n">
         <v>1953.0</v>
@@ -5937,7 +4817,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B42" t="n">
         <v>1946.0</v>
@@ -5946,7 +4826,7 @@
         <v>1991.0</v>
       </c>
       <c r="D42" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E42" t="n">
         <v>1954.0</v>
@@ -5957,7 +4837,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B43" t="n">
         <v>1946.0</v>
@@ -5966,7 +4846,7 @@
         <v>1991.0</v>
       </c>
       <c r="D43" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E43" t="n">
         <v>1955.0</v>
@@ -5977,7 +4857,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B44" t="n">
         <v>1946.0</v>
@@ -5986,7 +4866,7 @@
         <v>1991.0</v>
       </c>
       <c r="D44" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E44" t="n">
         <v>1956.0</v>
@@ -5997,7 +4877,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B45" t="n">
         <v>1946.0</v>
@@ -6006,7 +4886,7 @@
         <v>1991.0</v>
       </c>
       <c r="D45" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E45" t="n">
         <v>1957.0</v>
@@ -6017,7 +4897,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B46" t="n">
         <v>1946.0</v>
@@ -6026,7 +4906,7 @@
         <v>1991.0</v>
       </c>
       <c r="D46" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E46" t="n">
         <v>1958.0</v>
@@ -6037,7 +4917,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B47" t="n">
         <v>1946.0</v>
@@ -6046,7 +4926,7 @@
         <v>1991.0</v>
       </c>
       <c r="D47" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E47" t="n">
         <v>1959.0</v>
@@ -6057,7 +4937,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B48" t="n">
         <v>1946.0</v>
@@ -6066,7 +4946,7 @@
         <v>1991.0</v>
       </c>
       <c r="D48" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E48" t="n">
         <v>1960.0</v>
@@ -6077,7 +4957,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B49" t="n">
         <v>1946.0</v>
@@ -6086,7 +4966,7 @@
         <v>1991.0</v>
       </c>
       <c r="D49" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E49" t="n">
         <v>1961.0</v>
@@ -6097,7 +4977,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B50" t="n">
         <v>1946.0</v>
@@ -6106,7 +4986,7 @@
         <v>1991.0</v>
       </c>
       <c r="D50" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E50" t="n">
         <v>1962.0</v>
@@ -6117,7 +4997,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B51" t="n">
         <v>1946.0</v>
@@ -6126,7 +5006,7 @@
         <v>1991.0</v>
       </c>
       <c r="D51" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E51" t="n">
         <v>1963.0</v>
@@ -6137,7 +5017,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B52" t="n">
         <v>1946.0</v>
@@ -6146,7 +5026,7 @@
         <v>1991.0</v>
       </c>
       <c r="D52" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E52" t="n">
         <v>1964.0</v>
@@ -6157,7 +5037,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B53" t="n">
         <v>1946.0</v>
@@ -6166,7 +5046,7 @@
         <v>1991.0</v>
       </c>
       <c r="D53" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E53" t="n">
         <v>1965.0</v>
@@ -6177,7 +5057,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B54" t="n">
         <v>1946.0</v>
@@ -6186,7 +5066,7 @@
         <v>1991.0</v>
       </c>
       <c r="D54" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E54" t="n">
         <v>1966.0</v>
@@ -6197,7 +5077,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B55" t="n">
         <v>1946.0</v>
@@ -6206,7 +5086,7 @@
         <v>1991.0</v>
       </c>
       <c r="D55" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E55" t="n">
         <v>1967.0</v>
@@ -6217,7 +5097,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B56" t="n">
         <v>1946.0</v>
@@ -6226,7 +5106,7 @@
         <v>1991.0</v>
       </c>
       <c r="D56" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E56" t="n">
         <v>1968.0</v>
@@ -6237,7 +5117,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B57" t="n">
         <v>1946.0</v>
@@ -6246,7 +5126,7 @@
         <v>1991.0</v>
       </c>
       <c r="D57" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E57" t="n">
         <v>1969.0</v>
@@ -6257,7 +5137,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B58" t="n">
         <v>1946.0</v>
@@ -6266,7 +5146,7 @@
         <v>1991.0</v>
       </c>
       <c r="D58" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E58" t="n">
         <v>1970.0</v>
@@ -6277,7 +5157,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B59" t="n">
         <v>1946.0</v>
@@ -6286,7 +5166,7 @@
         <v>1991.0</v>
       </c>
       <c r="D59" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E59" t="n">
         <v>1971.0</v>
@@ -6297,7 +5177,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B60" t="n">
         <v>1946.0</v>
@@ -6306,7 +5186,7 @@
         <v>1991.0</v>
       </c>
       <c r="D60" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E60" t="n">
         <v>1972.0</v>
@@ -6317,7 +5197,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B61" t="n">
         <v>1946.0</v>
@@ -6326,7 +5206,7 @@
         <v>1991.0</v>
       </c>
       <c r="D61" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E61" t="n">
         <v>1973.0</v>
@@ -6337,7 +5217,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B62" t="n">
         <v>1946.0</v>
@@ -6346,7 +5226,7 @@
         <v>1991.0</v>
       </c>
       <c r="D62" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E62" t="n">
         <v>1974.0</v>
@@ -6357,7 +5237,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B63" t="n">
         <v>1946.0</v>
@@ -6366,7 +5246,7 @@
         <v>1991.0</v>
       </c>
       <c r="D63" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E63" t="n">
         <v>1975.0</v>
@@ -6377,7 +5257,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B64" t="n">
         <v>1946.0</v>
@@ -6386,7 +5266,7 @@
         <v>1991.0</v>
       </c>
       <c r="D64" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E64" t="n">
         <v>1976.0</v>
@@ -6397,7 +5277,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B65" t="n">
         <v>1946.0</v>
@@ -6406,7 +5286,7 @@
         <v>1991.0</v>
       </c>
       <c r="D65" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E65" t="n">
         <v>1977.0</v>
@@ -6417,7 +5297,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B66" t="n">
         <v>1946.0</v>
@@ -6426,7 +5306,7 @@
         <v>1991.0</v>
       </c>
       <c r="D66" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E66" t="n">
         <v>1978.0</v>
@@ -6437,7 +5317,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B67" t="n">
         <v>1946.0</v>
@@ -6446,7 +5326,7 @@
         <v>1991.0</v>
       </c>
       <c r="D67" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E67" t="n">
         <v>1979.0</v>
@@ -6457,7 +5337,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B68" t="n">
         <v>1946.0</v>
@@ -6466,7 +5346,7 @@
         <v>1991.0</v>
       </c>
       <c r="D68" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E68" t="n">
         <v>1980.0</v>
@@ -6477,7 +5357,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B69" t="n">
         <v>1946.0</v>
@@ -6486,7 +5366,7 @@
         <v>1991.0</v>
       </c>
       <c r="D69" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E69" t="n">
         <v>1981.0</v>
@@ -6497,7 +5377,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B70" t="n">
         <v>1946.0</v>
@@ -6506,7 +5386,7 @@
         <v>1991.0</v>
       </c>
       <c r="D70" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E70" t="n">
         <v>1982.0</v>
@@ -6517,7 +5397,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B71" t="n">
         <v>1946.0</v>
@@ -6526,7 +5406,7 @@
         <v>1991.0</v>
       </c>
       <c r="D71" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E71" t="n">
         <v>1983.0</v>
@@ -6537,7 +5417,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B72" t="n">
         <v>1946.0</v>
@@ -6546,7 +5426,7 @@
         <v>1991.0</v>
       </c>
       <c r="D72" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E72" t="n">
         <v>1984.0</v>
@@ -6557,7 +5437,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B73" t="n">
         <v>1946.0</v>
@@ -6566,7 +5446,7 @@
         <v>1991.0</v>
       </c>
       <c r="D73" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E73" t="n">
         <v>1985.0</v>
@@ -6577,7 +5457,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B74" t="n">
         <v>1946.0</v>
@@ -6586,7 +5466,7 @@
         <v>1991.0</v>
       </c>
       <c r="D74" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E74" t="n">
         <v>1986.0</v>
@@ -6597,7 +5477,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B75" t="n">
         <v>1946.0</v>
@@ -6606,7 +5486,7 @@
         <v>1991.0</v>
       </c>
       <c r="D75" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E75" t="n">
         <v>1987.0</v>
@@ -6617,7 +5497,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B76" t="n">
         <v>1946.0</v>
@@ -6626,7 +5506,7 @@
         <v>1991.0</v>
       </c>
       <c r="D76" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E76" t="n">
         <v>1988.0</v>
@@ -6637,7 +5517,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B77" t="n">
         <v>1946.0</v>
@@ -6646,7 +5526,7 @@
         <v>1991.0</v>
       </c>
       <c r="D77" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E77" t="n">
         <v>1989.0</v>
@@ -6657,7 +5537,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B78" t="n">
         <v>1946.0</v>
@@ -6666,7 +5546,7 @@
         <v>1991.0</v>
       </c>
       <c r="D78" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E78" t="n">
         <v>1990.0</v>
@@ -6677,7 +5557,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B79" t="n">
         <v>1946.0</v>
@@ -6686,7 +5566,7 @@
         <v>1991.0</v>
       </c>
       <c r="D79" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E79" t="n">
         <v>1991.0</v>
@@ -6697,7 +5577,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B80" t="n">
         <v>1946.0</v>
@@ -6706,7 +5586,7 @@
         <v>1991.0</v>
       </c>
       <c r="D80" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E80" t="n">
         <v>1992.0</v>
@@ -6717,7 +5597,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B81" t="n">
         <v>1946.0</v>
@@ -6726,7 +5606,7 @@
         <v>1991.0</v>
       </c>
       <c r="D81" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E81" t="n">
         <v>1993.0</v>
@@ -6737,7 +5617,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B82" t="n">
         <v>1946.0</v>
@@ -6746,7 +5626,7 @@
         <v>1991.0</v>
       </c>
       <c r="D82" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E82" t="n">
         <v>1994.0</v>
@@ -6757,7 +5637,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B83" t="n">
         <v>1946.0</v>
@@ -6766,7 +5646,7 @@
         <v>1991.0</v>
       </c>
       <c r="D83" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E83" t="n">
         <v>1995.0</v>
@@ -6777,7 +5657,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B84" t="n">
         <v>1946.0</v>
@@ -6786,7 +5666,7 @@
         <v>1991.0</v>
       </c>
       <c r="D84" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E84" t="n">
         <v>1996.0</v>
@@ -6810,68 +5690,68 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>616</v>
+        <v>532</v>
       </c>
       <c r="B1" t="s">
-        <v>617</v>
+        <v>533</v>
       </c>
       <c r="C1" t="s">
-        <v>618</v>
+        <v>534</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>619</v>
+        <v>535</v>
       </c>
       <c r="B2" t="s">
-        <v>624</v>
+        <v>540</v>
       </c>
       <c r="C2" t="s">
-        <v>625</v>
+        <v>541</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>620</v>
+        <v>536</v>
       </c>
       <c r="B3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C3" t="s">
-        <v>626</v>
+        <v>542</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>621</v>
+        <v>537</v>
       </c>
       <c r="B4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C4" t="s">
-        <v>627</v>
+        <v>543</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>622</v>
+        <v>538</v>
       </c>
       <c r="B5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C5" t="s">
-        <v>628</v>
+        <v>544</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>623</v>
+        <v>539</v>
       </c>
       <c r="B6" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C6" t="s">
-        <v>629</v>
+        <v>545</v>
       </c>
     </row>
   </sheetData>
